--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>315551.6823538653</v>
+        <v>306265.2772068196</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24637416.83709001</v>
+        <v>24618583.97139253</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12982213.73426294</v>
+        <v>12959083.11218783</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4252374.287782423</v>
+        <v>4264531.136799233</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>270.1142186599001</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>274.1725578298253</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>274.1725578298253</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>118.325100331087</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>274.1725578298253</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>25.50763584628654</v>
+        <v>24.99436908737729</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.47509974678952</v>
+        <v>98.17171951804575</v>
       </c>
       <c r="T11" t="n">
-        <v>129.6826653460851</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3654215163789</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>270.1142186599001</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>133.5535318240332</v>
+        <v>113.6408833811129</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3225372843372</v>
+        <v>195.3220686446375</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1514,7 +1514,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.745227197466634</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>172.2615320556243</v>
       </c>
       <c r="T13" t="n">
-        <v>234.1713765981734</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298253</v>
       </c>
       <c r="V13" t="n">
-        <v>270.1142186599001</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298253</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>120.9138730855882</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>24.9943690873773</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>98.17171951804576</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.1155535864358</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.364356440425</v>
       </c>
       <c r="V14" t="n">
-        <v>270.1142186599001</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>270.1142186599001</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>270.1142186599001</v>
+        <v>199.1903059638765</v>
       </c>
       <c r="Y14" t="n">
-        <v>237.91660379564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>19.30326599653408</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>25.07301911570086</v>
+        <v>105.0806531092105</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>61.93137370303386</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>154.3931474514378</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3220686446375</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>211.1008365810345</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.8534466943284</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>94.01566774666023</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.745227197466634</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>172.2615320556243</v>
       </c>
       <c r="T16" t="n">
-        <v>234.1713765981734</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="V16" t="n">
-        <v>270.1142186599001</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>270.1142186599001</v>
+        <v>223.8059598692285</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>270.1142186599001</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>270.1142186599001</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>237.91660379564</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>24.9943690873773</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.1155535864358</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.364356440425</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>23.18946765209704</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>37.43746008286712</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>105.0806531092105</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3225372843372</v>
+        <v>103.5023487995219</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -1988,10 +1988,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.759734932144223</v>
+        <v>55.37204252747073</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2016,10 +2016,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.8740295621684</v>
       </c>
       <c r="H19" t="n">
-        <v>141.9065428040363</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>52.77199389376629</v>
       </c>
       <c r="S19" t="n">
-        <v>172.365606945512</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>234.1458600628331</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>270.1142186599002</v>
+        <v>261.2993903259102</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>270.1142186599002</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.364356440425</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>270.1142186599002</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.91660379564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.0877764326451</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>11.71097338870033</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3225372843372</v>
+        <v>195.3220686446375</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>139.9647277550458</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>37.89902233845351</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>234.1713765981734</v>
+        <v>234.1458600628331</v>
       </c>
       <c r="U22" t="n">
-        <v>270.1142186599002</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>270.1142186599002</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>10.37099909362881</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>334.6153450723667</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>221.39643468598</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>83.78946074098174</v>
+        <v>83.78946074098218</v>
       </c>
       <c r="T24" t="n">
         <v>152.7312370348056</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.04199481568684</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>37.05878508127701</v>
       </c>
       <c r="H25" t="n">
         <v>138.8332284553781</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>232.6944259398202</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2566,13 +2566,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>61.06913856489372</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>76.13810384078947</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H27" t="n">
-        <v>58.01809521505042</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098218</v>
       </c>
       <c r="T27" t="n">
         <v>152.7312370348056</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>9.751257647461676</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
         <v>83.80004204681615</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>274.8036534408251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.3145745171349</v>
+        <v>134.0963677271592</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>354.6020799648376</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.8332284553781</v>
+        <v>100.3903486031078</v>
       </c>
       <c r="I31" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V31" t="n">
-        <v>6.710352661917761</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3031,10 +3031,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>348.9624223599189</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>123.4770113088857</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H33" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521505042</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>83.78946074098241</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T33" t="n">
         <v>152.7312370348056</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>101.1906708980857</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H34" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>83.80004204681615</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V34" t="n">
-        <v>6.710352661917987</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>104.3524869098928</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>44.57269815893241</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H36" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521505042</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>83.78946074098218</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T36" t="n">
         <v>152.7312370348056</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>100.7854781340028</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>17.99231530633603</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>83.80004204681615</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T37" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9132448002744</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>341.2386396699438</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>140.30421304638</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H39" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521505042</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>83.78946074098174</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T39" t="n">
         <v>152.7312370348056</v>
@@ -3663,19 +3663,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>96.29166316402916</v>
       </c>
       <c r="D40" t="n">
-        <v>138.3940476693178</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T40" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9132448002744</v>
@@ -3723,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>338.1073293588468</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>386.3503344499275</v>
       </c>
     </row>
     <row r="42">
@@ -3833,10 +3833,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>104.6754635110002</v>
+        <v>104.6754635109996</v>
       </c>
       <c r="H42" t="n">
-        <v>58.0180952150503</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098218</v>
       </c>
       <c r="T42" t="n">
         <v>152.7312370348056</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>18.08714026841606</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>72.69291554183016</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.49796586733679</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>166.3415337283568</v>
@@ -3957,7 +3957,7 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>197.4730129179008</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>80.91481491188677</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>39.8384893159855</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>57.04424478765718</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H46" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.49796586733679</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>239.6548480704913</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.37442622641478</v>
+        <v>997.5268782707701</v>
       </c>
       <c r="C11" t="n">
-        <v>47.37442622641478</v>
+        <v>720.5849006648859</v>
       </c>
       <c r="D11" t="n">
-        <v>47.37442622641478</v>
+        <v>720.5849006648859</v>
       </c>
       <c r="E11" t="n">
-        <v>47.37442622641478</v>
+        <v>443.6429230590018</v>
       </c>
       <c r="F11" t="n">
-        <v>47.37442622641478</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="G11" t="n">
-        <v>47.37442622641478</v>
+        <v>47.18064208838329</v>
       </c>
       <c r="H11" t="n">
-        <v>47.37442622641478</v>
+        <v>47.18064208838329</v>
       </c>
       <c r="I11" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="J11" t="n">
-        <v>79.74626897021631</v>
+        <v>81.18959885805953</v>
       </c>
       <c r="K11" t="n">
-        <v>187.4278584478594</v>
+        <v>190.5477738209181</v>
       </c>
       <c r="L11" t="n">
-        <v>335.9616056048228</v>
+        <v>341.1614735261211</v>
       </c>
       <c r="M11" t="n">
-        <v>514.0601408709317</v>
+        <v>521.5743567660973</v>
       </c>
       <c r="N11" t="n">
-        <v>696.9090890273596</v>
+        <v>706.775101466186</v>
       </c>
       <c r="O11" t="n">
-        <v>864.167384980532</v>
+        <v>876.2541322064387</v>
       </c>
       <c r="P11" t="n">
-        <v>992.9455655712483</v>
+        <v>1006.927658559413</v>
       </c>
       <c r="Q11" t="n">
-        <v>1070.142653724302</v>
+        <v>1085.548072446311</v>
       </c>
       <c r="R11" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="S11" t="n">
-        <v>980.9870769155707</v>
+        <v>997.5268782707701</v>
       </c>
       <c r="T11" t="n">
-        <v>849.9944856568989</v>
+        <v>997.5268782707701</v>
       </c>
       <c r="U11" t="n">
-        <v>593.0597164484353</v>
+        <v>997.5268782707701</v>
       </c>
       <c r="V11" t="n">
-        <v>320.2170713374251</v>
+        <v>997.5268782707701</v>
       </c>
       <c r="W11" t="n">
-        <v>320.2170713374251</v>
+        <v>997.5268782707701</v>
       </c>
       <c r="X11" t="n">
-        <v>320.2170713374251</v>
+        <v>997.5268782707701</v>
       </c>
       <c r="Y11" t="n">
-        <v>320.2170713374251</v>
+        <v>997.5268782707701</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="C12" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="D12" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="E12" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="F12" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="G12" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="H12" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="I12" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="J12" t="n">
-        <v>48.61398670394131</v>
+        <v>280.1583203717994</v>
       </c>
       <c r="K12" t="n">
-        <v>126.4222792884881</v>
+        <v>359.1053708725872</v>
       </c>
       <c r="L12" t="n">
-        <v>249.8057599759493</v>
+        <v>484.0200521098898</v>
       </c>
       <c r="M12" t="n">
-        <v>517.2188364492504</v>
+        <v>637.6291248787119</v>
       </c>
       <c r="N12" t="n">
-        <v>678.8948543608287</v>
+        <v>801.139273916541</v>
       </c>
       <c r="O12" t="n">
-        <v>817.7978077205321</v>
+        <v>941.7200989301631</v>
       </c>
       <c r="P12" t="n">
-        <v>921.4497818638511</v>
+        <v>1046.71871299953</v>
       </c>
       <c r="Q12" t="n">
-        <v>999.7301968144433</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="R12" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="S12" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="T12" t="n">
-        <v>945.5543172415872</v>
+        <v>981.9014602272679</v>
       </c>
       <c r="U12" t="n">
-        <v>748.2588250351861</v>
+        <v>784.6064413943006</v>
       </c>
       <c r="V12" t="n">
-        <v>534.5472980282199</v>
+        <v>570.8949143873344</v>
       </c>
       <c r="W12" t="n">
-        <v>321.3141297645486</v>
+        <v>357.6617461236632</v>
       </c>
       <c r="X12" t="n">
-        <v>321.3141297645486</v>
+        <v>181.335764262556</v>
       </c>
       <c r="Y12" t="n">
-        <v>161.9121701283786</v>
+        <v>21.93380462638602</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="C13" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="D13" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="E13" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="F13" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="G13" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="H13" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="I13" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="J13" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="K13" t="n">
-        <v>50.1520786856026</v>
+        <v>257.4438336781698</v>
       </c>
       <c r="L13" t="n">
-        <v>249.8776526781921</v>
+        <v>320.9873931587001</v>
       </c>
       <c r="M13" t="n">
-        <v>517.2907291514932</v>
+        <v>374.5146496956557</v>
       </c>
       <c r="N13" t="n">
-        <v>784.7038056247943</v>
+        <v>429.9514457033727</v>
       </c>
       <c r="O13" t="n">
-        <v>1052.116882098095</v>
+        <v>701.3822779548997</v>
       </c>
       <c r="P13" t="n">
-        <v>1080.456874639601</v>
+        <v>972.8131102064267</v>
       </c>
       <c r="Q13" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="R13" t="n">
-        <v>1076.673816864382</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="S13" t="n">
-        <v>1076.673816864382</v>
+        <v>922.6886837883675</v>
       </c>
       <c r="T13" t="n">
-        <v>840.1370728258228</v>
+        <v>922.6886837883675</v>
       </c>
       <c r="U13" t="n">
-        <v>567.2944277148125</v>
+        <v>645.7467061824834</v>
       </c>
       <c r="V13" t="n">
-        <v>294.4517826038023</v>
+        <v>645.7467061824834</v>
       </c>
       <c r="W13" t="n">
-        <v>21.60913749279201</v>
+        <v>368.8047285765993</v>
       </c>
       <c r="X13" t="n">
-        <v>21.60913749279201</v>
+        <v>246.6695032376213</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.60913749279201</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="C14" t="n">
-        <v>21.60913749279201</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="D14" t="n">
-        <v>21.60913749279201</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="E14" t="n">
-        <v>21.60913749279201</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="F14" t="n">
-        <v>21.60913749279201</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="G14" t="n">
-        <v>21.60913749279201</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="H14" t="n">
-        <v>21.60913749279201</v>
+        <v>47.18064208838329</v>
       </c>
       <c r="I14" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="J14" t="n">
-        <v>79.74626897021653</v>
+        <v>81.1895988580593</v>
       </c>
       <c r="K14" t="n">
-        <v>187.4278584478595</v>
+        <v>190.5477738209179</v>
       </c>
       <c r="L14" t="n">
-        <v>335.9616056048229</v>
+        <v>341.1614735261208</v>
       </c>
       <c r="M14" t="n">
-        <v>514.0601408709317</v>
+        <v>521.574356766097</v>
       </c>
       <c r="N14" t="n">
-        <v>696.9090890273596</v>
+        <v>706.7751014661858</v>
       </c>
       <c r="O14" t="n">
-        <v>864.1673849805322</v>
+        <v>876.2541322064386</v>
       </c>
       <c r="P14" t="n">
-        <v>992.9455655712485</v>
+        <v>1006.927658559413</v>
       </c>
       <c r="Q14" t="n">
-        <v>1070.142653724302</v>
+        <v>1085.548072446311</v>
       </c>
       <c r="R14" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="S14" t="n">
-        <v>1080.456874639601</v>
+        <v>997.5268782707698</v>
       </c>
       <c r="T14" t="n">
-        <v>1080.456874639601</v>
+        <v>782.258642324875</v>
       </c>
       <c r="U14" t="n">
-        <v>1080.456874639601</v>
+        <v>525.3249489507083</v>
       </c>
       <c r="V14" t="n">
-        <v>807.6142295285903</v>
+        <v>525.3249489507083</v>
       </c>
       <c r="W14" t="n">
-        <v>534.77158441758</v>
+        <v>525.3249489507083</v>
       </c>
       <c r="X14" t="n">
-        <v>261.9289393065698</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.60913749279201</v>
+        <v>324.1226196942674</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>180.9304906788977</v>
+        <v>210.1310700897986</v>
       </c>
       <c r="C15" t="n">
-        <v>46.93541942784339</v>
+        <v>190.632821608451</v>
       </c>
       <c r="D15" t="n">
-        <v>46.93541942784339</v>
+        <v>190.632821608451</v>
       </c>
       <c r="E15" t="n">
-        <v>46.93541942784339</v>
+        <v>190.632821608451</v>
       </c>
       <c r="F15" t="n">
-        <v>46.93541942784339</v>
+        <v>190.632821608451</v>
       </c>
       <c r="G15" t="n">
-        <v>21.60913749279201</v>
+        <v>84.49074776076365</v>
       </c>
       <c r="H15" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="I15" t="n">
-        <v>29.6474324803902</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="J15" t="n">
-        <v>56.65228169153949</v>
+        <v>280.1583203717996</v>
       </c>
       <c r="K15" t="n">
-        <v>134.4605742760862</v>
+        <v>359.1053708725873</v>
       </c>
       <c r="L15" t="n">
-        <v>257.8440549635474</v>
+        <v>484.0200521098899</v>
       </c>
       <c r="M15" t="n">
-        <v>409.6662889127687</v>
+        <v>637.629124878712</v>
       </c>
       <c r="N15" t="n">
-        <v>571.342306824347</v>
+        <v>801.139273916541</v>
       </c>
       <c r="O15" t="n">
-        <v>710.2452601840504</v>
+        <v>941.7200989301631</v>
       </c>
       <c r="P15" t="n">
-        <v>813.8972343273692</v>
+        <v>1046.71871299953</v>
       </c>
       <c r="Q15" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="R15" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="S15" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="T15" t="n">
-        <v>924.504200446229</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="U15" t="n">
-        <v>924.504200446229</v>
+        <v>899.3952124863337</v>
       </c>
       <c r="V15" t="n">
-        <v>710.7926734392628</v>
+        <v>899.3952124863337</v>
       </c>
       <c r="W15" t="n">
-        <v>497.5595051755915</v>
+        <v>686.1620442226624</v>
       </c>
       <c r="X15" t="n">
-        <v>321.2335233144843</v>
+        <v>509.8360623615552</v>
       </c>
       <c r="Y15" t="n">
-        <v>321.2335233144843</v>
+        <v>350.4341027253852</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.60913749279201</v>
+        <v>419.6800800519493</v>
       </c>
       <c r="C16" t="n">
-        <v>21.60913749279201</v>
+        <v>419.6800800519493</v>
       </c>
       <c r="D16" t="n">
-        <v>21.60913749279201</v>
+        <v>260.1854353748594</v>
       </c>
       <c r="E16" t="n">
-        <v>21.60913749279201</v>
+        <v>260.1854353748594</v>
       </c>
       <c r="F16" t="n">
-        <v>21.60913749279201</v>
+        <v>260.1854353748594</v>
       </c>
       <c r="G16" t="n">
-        <v>21.60913749279201</v>
+        <v>260.1854353748594</v>
       </c>
       <c r="H16" t="n">
-        <v>21.60913749279201</v>
+        <v>116.8991255826085</v>
       </c>
       <c r="I16" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="J16" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="K16" t="n">
-        <v>201.2406668727075</v>
+        <v>51.16364009245568</v>
       </c>
       <c r="L16" t="n">
-        <v>249.8776526781921</v>
+        <v>253.3426840098004</v>
       </c>
       <c r="M16" t="n">
-        <v>517.2907291514932</v>
+        <v>524.7735162613274</v>
       </c>
       <c r="N16" t="n">
-        <v>784.7038056247943</v>
+        <v>796.2043485128543</v>
       </c>
       <c r="O16" t="n">
-        <v>1052.116882098095</v>
+        <v>1067.635180764381</v>
       </c>
       <c r="P16" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="Q16" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="R16" t="n">
-        <v>1076.673816864382</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="S16" t="n">
-        <v>1076.673816864382</v>
+        <v>922.6886837883673</v>
       </c>
       <c r="T16" t="n">
-        <v>840.1370728258228</v>
+        <v>922.6886837883673</v>
       </c>
       <c r="U16" t="n">
-        <v>567.2944277148125</v>
+        <v>645.7467061824832</v>
       </c>
       <c r="V16" t="n">
-        <v>294.4517826038023</v>
+        <v>645.7467061824832</v>
       </c>
       <c r="W16" t="n">
-        <v>21.60913749279201</v>
+        <v>419.6800800519493</v>
       </c>
       <c r="X16" t="n">
-        <v>21.60913749279201</v>
+        <v>419.6800800519493</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.60913749279201</v>
+        <v>419.6800800519493</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1080.456874639601</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="C17" t="n">
-        <v>1080.456874639601</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="D17" t="n">
-        <v>1080.456874639601</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="E17" t="n">
-        <v>807.6142295285903</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="F17" t="n">
-        <v>534.77158441758</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="G17" t="n">
-        <v>294.4517826038023</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="H17" t="n">
-        <v>21.60913749279201</v>
+        <v>47.18064208838329</v>
       </c>
       <c r="I17" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="J17" t="n">
-        <v>79.74626897021646</v>
+        <v>81.1895988580593</v>
       </c>
       <c r="K17" t="n">
-        <v>187.4278584478596</v>
+        <v>190.5477738209179</v>
       </c>
       <c r="L17" t="n">
-        <v>335.961605604823</v>
+        <v>341.1614735261208</v>
       </c>
       <c r="M17" t="n">
-        <v>514.0601408709319</v>
+        <v>521.574356766097</v>
       </c>
       <c r="N17" t="n">
-        <v>696.9090890273599</v>
+        <v>706.7751014661858</v>
       </c>
       <c r="O17" t="n">
-        <v>864.1673849805322</v>
+        <v>876.2541322064387</v>
       </c>
       <c r="P17" t="n">
-        <v>992.9455655712485</v>
+        <v>1006.927658559413</v>
       </c>
       <c r="Q17" t="n">
-        <v>1070.142653724302</v>
+        <v>1085.548072446311</v>
       </c>
       <c r="R17" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="S17" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="T17" t="n">
-        <v>1080.456874639601</v>
+        <v>881.4219953734062</v>
       </c>
       <c r="U17" t="n">
-        <v>1080.456874639601</v>
+        <v>624.4883019992394</v>
       </c>
       <c r="V17" t="n">
-        <v>1080.456874639601</v>
+        <v>601.0645973001515</v>
       </c>
       <c r="W17" t="n">
-        <v>1080.456874639601</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="X17" t="n">
-        <v>1080.456874639601</v>
+        <v>324.1226196942674</v>
       </c>
       <c r="Y17" t="n">
-        <v>1080.456874639601</v>
+        <v>324.1226196942674</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>296.8147275263919</v>
+        <v>248.5686944817454</v>
       </c>
       <c r="C18" t="n">
-        <v>296.8147275263919</v>
+        <v>248.5686944817454</v>
       </c>
       <c r="D18" t="n">
-        <v>179.9175697457844</v>
+        <v>248.5686944817454</v>
       </c>
       <c r="E18" t="n">
-        <v>59.42475373811234</v>
+        <v>128.0758784740734</v>
       </c>
       <c r="F18" t="n">
-        <v>21.60913749279201</v>
+        <v>128.0758784740734</v>
       </c>
       <c r="G18" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="H18" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="I18" t="n">
-        <v>21.60913749279201</v>
+        <v>30.21490184237032</v>
       </c>
       <c r="J18" t="n">
-        <v>48.61398670394131</v>
+        <v>57.88601892634323</v>
       </c>
       <c r="K18" t="n">
-        <v>126.4222792884881</v>
+        <v>136.833069427131</v>
       </c>
       <c r="L18" t="n">
-        <v>249.8057599759493</v>
+        <v>261.7477506644335</v>
       </c>
       <c r="M18" t="n">
-        <v>401.6279939251706</v>
+        <v>415.3568234332556</v>
       </c>
       <c r="N18" t="n">
-        <v>563.3040118367489</v>
+        <v>578.8669724710846</v>
       </c>
       <c r="O18" t="n">
-        <v>702.2069651964523</v>
+        <v>719.4477974847067</v>
       </c>
       <c r="P18" t="n">
-        <v>813.0437981662994</v>
+        <v>824.4464115540734</v>
       </c>
       <c r="Q18" t="n">
-        <v>1080.456874639601</v>
+        <v>1095.8772438056</v>
       </c>
       <c r="R18" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="S18" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="T18" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="U18" t="n">
-        <v>883.1613824331994</v>
+        <v>992.1424042490768</v>
       </c>
       <c r="V18" t="n">
-        <v>669.4498554262332</v>
+        <v>778.4308772421106</v>
       </c>
       <c r="W18" t="n">
-        <v>456.2166871625619</v>
+        <v>565.1977089784393</v>
       </c>
       <c r="X18" t="n">
-        <v>456.2166871625619</v>
+        <v>388.8717271173321</v>
       </c>
       <c r="Y18" t="n">
-        <v>296.8147275263919</v>
+        <v>388.8717271173321</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>660.1682227238736</v>
+        <v>512.5989989930549</v>
       </c>
       <c r="C19" t="n">
-        <v>489.0748502855901</v>
+        <v>512.5989989930549</v>
       </c>
       <c r="D19" t="n">
-        <v>329.5802056085001</v>
+        <v>353.1043543159649</v>
       </c>
       <c r="E19" t="n">
-        <v>329.5802056085001</v>
+        <v>353.1043543159649</v>
       </c>
       <c r="F19" t="n">
-        <v>164.9490797190913</v>
+        <v>188.4732284265561</v>
       </c>
       <c r="G19" t="n">
-        <v>164.9490797190913</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="H19" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="I19" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="J19" t="n">
-        <v>21.60913749279201</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="K19" t="n">
-        <v>197.277165934179</v>
+        <v>257.4438336781698</v>
       </c>
       <c r="L19" t="n">
-        <v>464.6902424074801</v>
+        <v>528.8746659296968</v>
       </c>
       <c r="M19" t="n">
-        <v>517.2907291514932</v>
+        <v>582.4019224666525</v>
       </c>
       <c r="N19" t="n">
-        <v>784.7038056247943</v>
+        <v>782.2813462608401</v>
       </c>
       <c r="O19" t="n">
-        <v>1052.116882098095</v>
+        <v>825.259399067774</v>
       </c>
       <c r="P19" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="Q19" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="R19" t="n">
-        <v>1080.456874639601</v>
+        <v>1043.385186982163</v>
       </c>
       <c r="S19" t="n">
-        <v>906.3502009572651</v>
+        <v>1043.385186982163</v>
       </c>
       <c r="T19" t="n">
-        <v>906.3502009572651</v>
+        <v>806.8742172217258</v>
       </c>
       <c r="U19" t="n">
-        <v>906.3502009572651</v>
+        <v>806.8742172217258</v>
       </c>
       <c r="V19" t="n">
-        <v>906.3502009572651</v>
+        <v>806.8742172217258</v>
       </c>
       <c r="W19" t="n">
-        <v>906.3502009572651</v>
+        <v>806.8742172217258</v>
       </c>
       <c r="X19" t="n">
-        <v>668.0063388169485</v>
+        <v>568.5303550814092</v>
       </c>
       <c r="Y19" t="n">
-        <v>668.0063388169485</v>
+        <v>568.5303550814092</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>567.2944277148126</v>
+        <v>562.8145603392501</v>
       </c>
       <c r="C20" t="n">
-        <v>567.2944277148126</v>
+        <v>285.872582733366</v>
       </c>
       <c r="D20" t="n">
-        <v>567.2944277148126</v>
+        <v>285.872582733366</v>
       </c>
       <c r="E20" t="n">
-        <v>294.4517826038023</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="F20" t="n">
-        <v>294.4517826038023</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="G20" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="H20" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="I20" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="J20" t="n">
-        <v>79.74626897021653</v>
+        <v>81.18959885805953</v>
       </c>
       <c r="K20" t="n">
-        <v>187.4278584478597</v>
+        <v>190.5477738209181</v>
       </c>
       <c r="L20" t="n">
-        <v>335.9616056048231</v>
+        <v>341.1614735261211</v>
       </c>
       <c r="M20" t="n">
-        <v>514.0601408709322</v>
+        <v>521.5743567660973</v>
       </c>
       <c r="N20" t="n">
-        <v>696.9090890273601</v>
+        <v>706.7751014661859</v>
       </c>
       <c r="O20" t="n">
-        <v>864.1673849805325</v>
+        <v>876.2541322064385</v>
       </c>
       <c r="P20" t="n">
-        <v>992.9455655712487</v>
+        <v>1006.927658559413</v>
       </c>
       <c r="Q20" t="n">
-        <v>1070.142653724302</v>
+        <v>1085.548072446311</v>
       </c>
       <c r="R20" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="S20" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="T20" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="U20" t="n">
-        <v>1080.456874639601</v>
+        <v>839.7565379451341</v>
       </c>
       <c r="V20" t="n">
-        <v>1080.456874639601</v>
+        <v>839.7565379451341</v>
       </c>
       <c r="W20" t="n">
-        <v>807.6142295285904</v>
+        <v>839.7565379451341</v>
       </c>
       <c r="X20" t="n">
-        <v>807.6142295285904</v>
+        <v>839.7565379451341</v>
       </c>
       <c r="Y20" t="n">
-        <v>567.2944277148126</v>
+        <v>839.7565379451341</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.7584066166759</v>
+        <v>385.3815717026077</v>
       </c>
       <c r="C21" t="n">
-        <v>127.7584066166759</v>
+        <v>251.3865004515534</v>
       </c>
       <c r="D21" t="n">
-        <v>127.7584066166759</v>
+        <v>251.3865004515534</v>
       </c>
       <c r="E21" t="n">
-        <v>127.7584066166759</v>
+        <v>130.8936844438814</v>
       </c>
       <c r="F21" t="n">
-        <v>127.7584066166759</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="G21" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="H21" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="I21" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="J21" t="n">
-        <v>48.61398670394131</v>
+        <v>280.1583203717996</v>
       </c>
       <c r="K21" t="n">
-        <v>126.4222792884881</v>
+        <v>359.1053708725873</v>
       </c>
       <c r="L21" t="n">
-        <v>393.8353557617893</v>
+        <v>484.0200521098899</v>
       </c>
       <c r="M21" t="n">
-        <v>545.6575897110106</v>
+        <v>637.629124878712</v>
       </c>
       <c r="N21" t="n">
-        <v>707.3336076225889</v>
+        <v>801.139273916541</v>
       </c>
       <c r="O21" t="n">
-        <v>846.2365609822923</v>
+        <v>941.7200989301631</v>
       </c>
       <c r="P21" t="n">
-        <v>949.8885351256113</v>
+        <v>1046.71871299953</v>
       </c>
       <c r="Q21" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="R21" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="S21" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="T21" t="n">
-        <v>1068.627608590408</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="U21" t="n">
-        <v>871.3321163840072</v>
+        <v>899.3952124863337</v>
       </c>
       <c r="V21" t="n">
-        <v>657.620589377041</v>
+        <v>899.3952124863337</v>
       </c>
       <c r="W21" t="n">
-        <v>444.3874211133698</v>
+        <v>686.1620442226624</v>
       </c>
       <c r="X21" t="n">
-        <v>268.0614392522626</v>
+        <v>544.7835313387777</v>
       </c>
       <c r="Y21" t="n">
-        <v>268.0614392522626</v>
+        <v>385.3815717026077</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="C22" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="D22" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="E22" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="F22" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="G22" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="H22" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="I22" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="J22" t="n">
-        <v>84.53879695095577</v>
+        <v>85.28145913643831</v>
       </c>
       <c r="K22" t="n">
-        <v>113.0817381437664</v>
+        <v>114.511294602508</v>
       </c>
       <c r="L22" t="n">
-        <v>351.766291954034</v>
+        <v>164.027268588343</v>
       </c>
       <c r="M22" t="n">
-        <v>619.1793684273352</v>
+        <v>435.45810083987</v>
       </c>
       <c r="N22" t="n">
-        <v>886.5924449006365</v>
+        <v>706.8889330913969</v>
       </c>
       <c r="O22" t="n">
-        <v>928.7348300893675</v>
+        <v>943.7580596515068</v>
       </c>
       <c r="P22" t="n">
-        <v>957.0748226308726</v>
+        <v>972.8131102064265</v>
       </c>
       <c r="Q22" t="n">
-        <v>1080.456874639601</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="R22" t="n">
-        <v>1042.175033893688</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="S22" t="n">
-        <v>1042.175033893688</v>
+        <v>1096.690231319301</v>
       </c>
       <c r="T22" t="n">
-        <v>805.6382898551292</v>
+        <v>860.1792615588633</v>
       </c>
       <c r="U22" t="n">
-        <v>532.7956447441189</v>
+        <v>583.2372839529793</v>
       </c>
       <c r="V22" t="n">
-        <v>532.7956447441189</v>
+        <v>309.3515388925012</v>
       </c>
       <c r="W22" t="n">
-        <v>259.9529996331086</v>
+        <v>32.40956128661713</v>
       </c>
       <c r="X22" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.60913749279202</v>
+        <v>21.93380462638602</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.100667638946</v>
+        <v>668.5831291620789</v>
       </c>
       <c r="C23" t="n">
-        <v>1203.976076952216</v>
+        <v>668.5831291620789</v>
       </c>
       <c r="D23" t="n">
-        <v>799.5121470452768</v>
+        <v>264.1191992551394</v>
       </c>
       <c r="E23" t="n">
-        <v>461.5168489923811</v>
+        <v>264.1191992551394</v>
       </c>
       <c r="F23" t="n">
-        <v>40.48643694606871</v>
+        <v>264.1191992551394</v>
       </c>
       <c r="G23" t="n">
-        <v>40.48643694606871</v>
+        <v>264.1191992551394</v>
       </c>
       <c r="H23" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I23" t="n">
-        <v>44.64574590746555</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J23" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K23" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L23" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M23" t="n">
-        <v>953.2429319501302</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N23" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O23" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P23" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q23" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R23" t="n">
         <v>2024.321847303436</v>
@@ -6019,22 +6019,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T23" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U23" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="V23" t="n">
-        <v>2024.321847303436</v>
+        <v>1462.5646096914</v>
       </c>
       <c r="W23" t="n">
-        <v>2024.321847303436</v>
+        <v>1078.804308826568</v>
       </c>
       <c r="X23" t="n">
-        <v>2024.321847303436</v>
+        <v>1078.804308826568</v>
       </c>
       <c r="Y23" t="n">
-        <v>2024.321847303436</v>
+        <v>1078.804308826568</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>204.8233649521798</v>
       </c>
       <c r="G24" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H24" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I24" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J24" t="n">
-        <v>352.2490680648406</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K24" t="n">
-        <v>495.9710605961321</v>
+        <v>664.3550098615118</v>
       </c>
       <c r="L24" t="n">
-        <v>707.9836451177895</v>
+        <v>876.3675943831691</v>
       </c>
       <c r="M24" t="n">
-        <v>963.2318628767575</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N24" t="n">
-        <v>1231.071242635907</v>
+        <v>1399.455191901287</v>
       </c>
       <c r="O24" t="n">
-        <v>1467.092931389886</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.691252826069</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q24" t="n">
         <v>1918.251596225539</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3685283624266</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3685283624266</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3685283624266</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3685283624266</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3685283624266</v>
+        <v>302.8016446061407</v>
       </c>
       <c r="G25" t="n">
         <v>265.3685283624266</v>
@@ -6144,55 +6144,55 @@
         <v>125.1329440640648</v>
       </c>
       <c r="I25" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J25" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K25" t="n">
-        <v>402.1925459421785</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L25" t="n">
-        <v>815.6863250168146</v>
+        <v>506.8233170565554</v>
       </c>
       <c r="M25" t="n">
-        <v>1266.896543402695</v>
+        <v>958.033535442436</v>
       </c>
       <c r="N25" t="n">
-        <v>1451.145037964104</v>
+        <v>1396.967762018482</v>
       </c>
       <c r="O25" t="n">
-        <v>1541.657620062865</v>
+        <v>1802.555103535984</v>
       </c>
       <c r="P25" t="n">
-        <v>1872.28415574375</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q25" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R25" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S25" t="n">
-        <v>1818.423362863341</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T25" t="n">
-        <v>1583.378488176654</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U25" t="n">
-        <v>1300.637836863246</v>
+        <v>1506.536321303341</v>
       </c>
       <c r="V25" t="n">
-        <v>1026.752091802768</v>
+        <v>1232.650576242863</v>
       </c>
       <c r="W25" t="n">
-        <v>747.682427311642</v>
+        <v>953.5809117517369</v>
       </c>
       <c r="X25" t="n">
-        <v>509.3385651713253</v>
+        <v>715.2370496114204</v>
       </c>
       <c r="Y25" t="n">
-        <v>284.60286656009</v>
+        <v>490.5013510001851</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2024.321847303436</v>
+        <v>1280.320994382424</v>
       </c>
       <c r="C26" t="n">
-        <v>1614.197256616706</v>
+        <v>1280.320994382424</v>
       </c>
       <c r="D26" t="n">
-        <v>1209.733326709767</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="E26" t="n">
-        <v>795.3931112266637</v>
+        <v>461.5168489923812</v>
       </c>
       <c r="F26" t="n">
-        <v>733.707112676266</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G26" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H26" t="n">
         <v>40.48643694606873</v>
@@ -6229,13 +6229,13 @@
         <v>167.5334271492898</v>
       </c>
       <c r="K26" t="n">
-        <v>372.2593058752968</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L26" t="n">
-        <v>641.1850750879082</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501312</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N26" t="n">
         <v>1272.218803576257</v>
@@ -6244,7 +6244,7 @@
         <v>1568.017893256778</v>
       </c>
       <c r="P26" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q26" t="n">
         <v>1966.084838463273</v>
@@ -6259,19 +6259,19 @@
         <v>2024.321847303436</v>
       </c>
       <c r="U26" t="n">
-        <v>2024.321847303436</v>
+        <v>1767.449349643671</v>
       </c>
       <c r="V26" t="n">
-        <v>2024.321847303436</v>
+        <v>1767.449349643671</v>
       </c>
       <c r="W26" t="n">
-        <v>2024.321847303436</v>
+        <v>1690.542174046913</v>
       </c>
       <c r="X26" t="n">
-        <v>2024.321847303436</v>
+        <v>1690.542174046913</v>
       </c>
       <c r="Y26" t="n">
-        <v>2024.321847303436</v>
+        <v>1690.542174046913</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>685.1682898090093</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C27" t="n">
-        <v>551.1732185579549</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D27" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E27" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F27" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G27" t="n">
-        <v>99.09057352692774</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H27" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I27" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J27" t="n">
-        <v>352.2490680648407</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K27" t="n">
-        <v>495.9710605961322</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L27" t="n">
-        <v>876.3675943831691</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M27" t="n">
-        <v>1131.615812142137</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N27" t="n">
-        <v>1399.455191901287</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O27" t="n">
-        <v>1635.476880655266</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P27" t="n">
-        <v>1817.075202091449</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q27" t="n">
         <v>1918.251596225539</v>
@@ -6332,25 +6332,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S27" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T27" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U27" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V27" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W27" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X27" t="n">
-        <v>984.8732820807659</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y27" t="n">
-        <v>825.4713224445959</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>289.7640699534736</v>
+        <v>926.4511644259501</v>
       </c>
       <c r="C28" t="n">
-        <v>289.7640699534736</v>
+        <v>916.6014092264938</v>
       </c>
       <c r="D28" t="n">
-        <v>289.7640699534736</v>
+        <v>757.1067645494038</v>
       </c>
       <c r="E28" t="n">
-        <v>289.7640699534736</v>
+        <v>596.1959494177233</v>
       </c>
       <c r="F28" t="n">
-        <v>125.1329440640648</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G28" t="n">
-        <v>125.1329440640648</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H28" t="n">
         <v>125.1329440640648</v>
@@ -6390,13 +6390,13 @@
         <v>402.1925459421785</v>
       </c>
       <c r="L28" t="n">
-        <v>815.6863250168146</v>
+        <v>577.9601350310231</v>
       </c>
       <c r="M28" t="n">
-        <v>921.9301938884097</v>
+        <v>1029.170353416904</v>
       </c>
       <c r="N28" t="n">
-        <v>1360.864420464456</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O28" t="n">
         <v>1541.657620062866</v>
@@ -6408,28 +6408,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R28" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S28" t="n">
-        <v>1818.423362863342</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T28" t="n">
-        <v>1583.378488176655</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="U28" t="n">
-        <v>1305.799040256629</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="V28" t="n">
-        <v>1031.913295196151</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="W28" t="n">
-        <v>752.8436307050256</v>
+        <v>1577.230431571546</v>
       </c>
       <c r="X28" t="n">
-        <v>514.4997685647089</v>
+        <v>1338.88656943123</v>
       </c>
       <c r="Y28" t="n">
-        <v>289.7640699534736</v>
+        <v>1114.150870819994</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>446.8647950441849</v>
+        <v>872.9042217569598</v>
       </c>
       <c r="C29" t="n">
-        <v>446.8647950441849</v>
+        <v>462.7796310702299</v>
       </c>
       <c r="D29" t="n">
-        <v>446.8647950441849</v>
+        <v>462.7796310702299</v>
       </c>
       <c r="E29" t="n">
-        <v>446.8647950441849</v>
+        <v>462.7796310702299</v>
       </c>
       <c r="F29" t="n">
-        <v>446.8647950441849</v>
+        <v>462.7796310702299</v>
       </c>
       <c r="G29" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H29" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746555</v>
       </c>
       <c r="J29" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K29" t="n">
-        <v>372.2593058752966</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L29" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M29" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N29" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O29" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P29" t="n">
         <v>1806.502667397418</v>
@@ -6493,22 +6493,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T29" t="n">
-        <v>1812.402164354919</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U29" t="n">
-        <v>1555.529666695153</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V29" t="n">
-        <v>1205.692112031634</v>
+        <v>1674.484292639917</v>
       </c>
       <c r="W29" t="n">
-        <v>847.5081928752323</v>
+        <v>1674.484292639917</v>
       </c>
       <c r="X29" t="n">
-        <v>446.8647950441849</v>
+        <v>1273.84089480887</v>
       </c>
       <c r="Y29" t="n">
-        <v>446.8647950441849</v>
+        <v>872.9042217569598</v>
       </c>
     </row>
     <row r="30">
@@ -6521,19 +6521,19 @@
         <v>685.1682898090093</v>
       </c>
       <c r="C30" t="n">
-        <v>551.1732185579549</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D30" t="n">
-        <v>434.2760607773473</v>
+        <v>434.2760607773475</v>
       </c>
       <c r="E30" t="n">
-        <v>313.7832447696753</v>
+        <v>313.7832447696755</v>
       </c>
       <c r="F30" t="n">
-        <v>204.8233649521799</v>
+        <v>204.8233649521801</v>
       </c>
       <c r="G30" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692776</v>
       </c>
       <c r="H30" t="n">
         <v>40.48643694606873</v>
@@ -6545,25 +6545,25 @@
         <v>108.5806640902074</v>
       </c>
       <c r="K30" t="n">
-        <v>609.6003212978078</v>
+        <v>609.6003212978079</v>
       </c>
       <c r="L30" t="n">
-        <v>821.6129058194651</v>
+        <v>876.3675943831694</v>
       </c>
       <c r="M30" t="n">
-        <v>1076.861123578433</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.700503337583</v>
+        <v>1399.455191901287</v>
       </c>
       <c r="O30" t="n">
-        <v>1580.722192091562</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P30" t="n">
-        <v>1905.04491856843</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q30" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.25159622554</v>
       </c>
       <c r="R30" t="n">
         <v>2024.321847303436</v>
@@ -6575,10 +6575,10 @@
         <v>1785.412051570318</v>
       </c>
       <c r="U30" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V30" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W30" t="n">
         <v>1161.199263941873</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1087.694781664777</v>
+        <v>302.8016446061409</v>
       </c>
       <c r="C31" t="n">
-        <v>916.6014092264938</v>
+        <v>302.8016446061409</v>
       </c>
       <c r="D31" t="n">
-        <v>757.1067645494038</v>
+        <v>302.8016446061409</v>
       </c>
       <c r="E31" t="n">
-        <v>596.1959494177233</v>
+        <v>141.8908294744604</v>
       </c>
       <c r="F31" t="n">
-        <v>431.5648235283147</v>
+        <v>141.8908294744604</v>
       </c>
       <c r="G31" t="n">
-        <v>265.3685283624266</v>
+        <v>141.8908294744604</v>
       </c>
       <c r="H31" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I31" t="n">
         <v>40.48643694606873</v>
@@ -6627,13 +6627,13 @@
         <v>402.1925459421785</v>
       </c>
       <c r="L31" t="n">
-        <v>501.7072137817916</v>
+        <v>815.6863250168146</v>
       </c>
       <c r="M31" t="n">
-        <v>952.9174321676721</v>
+        <v>1029.170353416904</v>
       </c>
       <c r="N31" t="n">
-        <v>1391.851658743718</v>
+        <v>1136.070278545365</v>
       </c>
       <c r="O31" t="n">
         <v>1541.657620062866</v>
@@ -6651,22 +6651,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.321847303436</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U31" t="n">
-        <v>2024.321847303436</v>
+        <v>1506.536321303341</v>
       </c>
       <c r="V31" t="n">
-        <v>2017.543713301499</v>
+        <v>1232.650576242863</v>
       </c>
       <c r="W31" t="n">
-        <v>1738.474048810373</v>
+        <v>953.5809117517372</v>
       </c>
       <c r="X31" t="n">
-        <v>1500.130186670057</v>
+        <v>715.2370496114206</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.394488058822</v>
+        <v>490.5013510001853</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>444.9503668530082</v>
+        <v>679.8160498911993</v>
       </c>
       <c r="C32" t="n">
-        <v>444.9503668530082</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="D32" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="E32" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="F32" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G32" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H32" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K32" t="n">
-        <v>372.2593058752965</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L32" t="n">
-        <v>641.1850750879078</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N32" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O32" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P32" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q32" t="n">
         <v>1966.084838463273</v>
@@ -6733,19 +6733,19 @@
         <v>1730.670028080286</v>
       </c>
       <c r="U32" t="n">
-        <v>1730.670028080286</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="V32" t="n">
-        <v>1380.832473416767</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="W32" t="n">
-        <v>1256.108219569408</v>
+        <v>1090.037229555689</v>
       </c>
       <c r="X32" t="n">
-        <v>1256.108219569408</v>
+        <v>1090.037229555689</v>
       </c>
       <c r="Y32" t="n">
-        <v>855.1715465174977</v>
+        <v>1090.037229555689</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C33" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D33" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E33" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F33" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G33" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692774</v>
       </c>
       <c r="H33" t="n">
         <v>40.48643694606873</v>
@@ -6800,31 +6800,31 @@
         <v>1648.691252826069</v>
       </c>
       <c r="Q33" t="n">
-        <v>2006.221312702521</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R33" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S33" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T33" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U33" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V33" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W33" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X33" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y33" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1087.694781664777</v>
+        <v>725.5462256868722</v>
       </c>
       <c r="C34" t="n">
-        <v>916.6014092264938</v>
+        <v>554.4528532485887</v>
       </c>
       <c r="D34" t="n">
-        <v>757.1067645494038</v>
+        <v>452.2400543616334</v>
       </c>
       <c r="E34" t="n">
-        <v>596.1959494177233</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="F34" t="n">
-        <v>431.5648235283147</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="G34" t="n">
-        <v>265.3685283624266</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H34" t="n">
         <v>125.1329440640648</v>
@@ -6861,22 +6861,22 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K34" t="n">
-        <v>195.9123523564644</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L34" t="n">
-        <v>372.1997937892747</v>
+        <v>506.8233170565554</v>
       </c>
       <c r="M34" t="n">
-        <v>823.4100121751553</v>
+        <v>958.033535442436</v>
       </c>
       <c r="N34" t="n">
-        <v>1262.344238751202</v>
+        <v>1396.967762018482</v>
       </c>
       <c r="O34" t="n">
-        <v>1667.931580268703</v>
+        <v>1802.555103535984</v>
       </c>
       <c r="P34" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q34" t="n">
         <v>2024.321847303436</v>
@@ -6891,19 +6891,19 @@
         <v>2024.321847303436</v>
       </c>
       <c r="U34" t="n">
-        <v>2024.321847303436</v>
+        <v>1741.581195990028</v>
       </c>
       <c r="V34" t="n">
-        <v>2017.543713301499</v>
+        <v>1467.69545092955</v>
       </c>
       <c r="W34" t="n">
-        <v>1738.474048810373</v>
+        <v>1188.625786438424</v>
       </c>
       <c r="X34" t="n">
-        <v>1500.130186670057</v>
+        <v>950.2819242981075</v>
       </c>
       <c r="Y34" t="n">
-        <v>1275.394488058822</v>
+        <v>725.5462256868722</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1674.484292639917</v>
+        <v>1569.077740205682</v>
       </c>
       <c r="C35" t="n">
-        <v>1674.484292639917</v>
+        <v>1569.077740205682</v>
       </c>
       <c r="D35" t="n">
         <v>1569.077740205682</v>
@@ -6934,28 +6934,28 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I35" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J35" t="n">
-        <v>167.5334271492902</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K35" t="n">
-        <v>372.2593058752971</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L35" t="n">
-        <v>641.1850750879084</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M35" t="n">
-        <v>953.2429319501314</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N35" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O35" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P35" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q35" t="n">
         <v>1966.084838463273</v>
@@ -6973,16 +6973,16 @@
         <v>2024.321847303436</v>
       </c>
       <c r="V35" t="n">
-        <v>1674.484292639917</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W35" t="n">
-        <v>1674.484292639917</v>
+        <v>1979.298919870171</v>
       </c>
       <c r="X35" t="n">
-        <v>1674.484292639917</v>
+        <v>1979.298919870171</v>
       </c>
       <c r="Y35" t="n">
-        <v>1674.484292639917</v>
+        <v>1979.298919870171</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C36" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D36" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E36" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F36" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G36" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692774</v>
       </c>
       <c r="H36" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I36" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J36" t="n">
-        <v>108.5806640902074</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K36" t="n">
-        <v>252.3026566214989</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L36" t="n">
-        <v>753.3223138290994</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M36" t="n">
-        <v>1008.570531588067</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N36" t="n">
-        <v>1276.409911347217</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O36" t="n">
-        <v>1512.431600101196</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P36" t="n">
-        <v>1694.029921537379</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q36" t="n">
         <v>1918.251596225539</v>
@@ -7043,25 +7043,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S36" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T36" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U36" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V36" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W36" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X36" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y36" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>302.8016446061407</v>
+        <v>557.5244744461078</v>
       </c>
       <c r="C37" t="n">
-        <v>302.8016446061407</v>
+        <v>386.4311020078243</v>
       </c>
       <c r="D37" t="n">
-        <v>143.3069999290507</v>
+        <v>226.9364573307343</v>
       </c>
       <c r="E37" t="n">
-        <v>143.3069999290507</v>
+        <v>226.9364573307343</v>
       </c>
       <c r="F37" t="n">
-        <v>143.3069999290507</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="G37" t="n">
-        <v>143.3069999290507</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H37" t="n">
         <v>125.1329440640648</v>
@@ -7098,22 +7098,22 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K37" t="n">
-        <v>195.9123523564644</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L37" t="n">
-        <v>295.4270201960774</v>
+        <v>561.000593002178</v>
       </c>
       <c r="M37" t="n">
-        <v>746.6372385819579</v>
+        <v>1012.210811388059</v>
       </c>
       <c r="N37" t="n">
-        <v>1185.571465158004</v>
+        <v>1451.145037964105</v>
       </c>
       <c r="O37" t="n">
-        <v>1591.158806675506</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P37" t="n">
-        <v>1921.785342356391</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q37" t="n">
         <v>2024.321847303436</v>
@@ -7122,25 +7122,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S37" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T37" t="n">
-        <v>1789.276972616749</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="U37" t="n">
-        <v>1506.536321303341</v>
+        <v>1573.559444749263</v>
       </c>
       <c r="V37" t="n">
-        <v>1232.650576242863</v>
+        <v>1299.673699688785</v>
       </c>
       <c r="W37" t="n">
-        <v>953.5809117517369</v>
+        <v>1020.60403519766</v>
       </c>
       <c r="X37" t="n">
-        <v>715.2370496114204</v>
+        <v>782.2601730573431</v>
       </c>
       <c r="Y37" t="n">
-        <v>490.5013510001851</v>
+        <v>557.5244744461078</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.100667638946</v>
+        <v>890.0805939440381</v>
       </c>
       <c r="C38" t="n">
-        <v>1203.976076952216</v>
+        <v>890.0805939440381</v>
       </c>
       <c r="D38" t="n">
-        <v>799.5121470452768</v>
+        <v>890.0805939440381</v>
       </c>
       <c r="E38" t="n">
-        <v>385.1719315621735</v>
+        <v>890.0805939440381</v>
       </c>
       <c r="F38" t="n">
-        <v>40.48643694606871</v>
+        <v>469.0501818977257</v>
       </c>
       <c r="G38" t="n">
-        <v>40.48643694606871</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H38" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I38" t="n">
         <v>44.64574590746543</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K38" t="n">
-        <v>372.2593058752963</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L38" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N38" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O38" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P38" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q38" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R38" t="n">
         <v>2024.321847303436</v>
@@ -7210,16 +7210,16 @@
         <v>2024.321847303436</v>
       </c>
       <c r="V38" t="n">
-        <v>2024.321847303436</v>
+        <v>1674.484292639917</v>
       </c>
       <c r="W38" t="n">
-        <v>2024.321847303436</v>
+        <v>1290.723991775086</v>
       </c>
       <c r="X38" t="n">
-        <v>2024.321847303436</v>
+        <v>890.0805939440381</v>
       </c>
       <c r="Y38" t="n">
-        <v>2024.321847303436</v>
+        <v>890.0805939440381</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C39" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D39" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E39" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F39" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G39" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692774</v>
       </c>
       <c r="H39" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I39" t="n">
-        <v>62.57863487475245</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J39" t="n">
         <v>371.8168719145381</v>
@@ -7268,37 +7268,37 @@
         <v>1250.639046485604</v>
       </c>
       <c r="O39" t="n">
-        <v>1723.446597132247</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P39" t="n">
-        <v>1905.04491856843</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q39" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R39" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S39" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T39" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U39" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V39" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W39" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X39" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y39" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>264.9249114068101</v>
+        <v>873.6301311544244</v>
       </c>
       <c r="C40" t="n">
-        <v>264.9249114068101</v>
+        <v>776.3658249281323</v>
       </c>
       <c r="D40" t="n">
-        <v>125.1329440640648</v>
+        <v>616.8711802510422</v>
       </c>
       <c r="E40" t="n">
-        <v>125.1329440640648</v>
+        <v>455.9603651193617</v>
       </c>
       <c r="F40" t="n">
-        <v>125.1329440640648</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="G40" t="n">
         <v>125.1329440640648</v>
@@ -7329,7 +7329,7 @@
         <v>125.1329440640648</v>
       </c>
       <c r="I40" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J40" t="n">
         <v>127.6105279304289</v>
@@ -7338,46 +7338,46 @@
         <v>402.1925459421785</v>
       </c>
       <c r="L40" t="n">
-        <v>561.0005930021775</v>
+        <v>815.6863250168146</v>
       </c>
       <c r="M40" t="n">
-        <v>1012.210811388058</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N40" t="n">
-        <v>1451.145037964104</v>
+        <v>1373.796468531156</v>
       </c>
       <c r="O40" t="n">
-        <v>1541.657620062865</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P40" t="n">
-        <v>1872.28415574375</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q40" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R40" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S40" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T40" t="n">
-        <v>1751.400239417419</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="U40" t="n">
-        <v>1468.65958810401</v>
+        <v>1573.559444749263</v>
       </c>
       <c r="V40" t="n">
-        <v>1194.773843043532</v>
+        <v>1299.673699688785</v>
       </c>
       <c r="W40" t="n">
-        <v>915.7041785524063</v>
+        <v>1299.673699688785</v>
       </c>
       <c r="X40" t="n">
-        <v>677.3603164120898</v>
+        <v>1061.329837548469</v>
       </c>
       <c r="Y40" t="n">
-        <v>452.6246178008545</v>
+        <v>1061.329837548469</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1213.163994587037</v>
+        <v>733.707112676266</v>
       </c>
       <c r="C41" t="n">
-        <v>803.0394039003073</v>
+        <v>733.707112676266</v>
       </c>
       <c r="D41" t="n">
-        <v>803.0394039003073</v>
+        <v>733.707112676266</v>
       </c>
       <c r="E41" t="n">
-        <v>461.5168489923812</v>
+        <v>733.707112676266</v>
       </c>
       <c r="F41" t="n">
-        <v>40.48643694606873</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G41" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H41" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746497</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J41" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K41" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L41" t="n">
         <v>641.1850750879078</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N41" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O41" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P41" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q41" t="n">
         <v>1966.084838463273</v>
@@ -7438,25 +7438,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S41" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T41" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U41" t="n">
-        <v>2024.321847303436</v>
+        <v>1473.79753042052</v>
       </c>
       <c r="V41" t="n">
-        <v>2024.321847303436</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="W41" t="n">
-        <v>2024.321847303436</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="X41" t="n">
-        <v>2024.321847303436</v>
+        <v>1123.959975757001</v>
       </c>
       <c r="Y41" t="n">
-        <v>1623.385174251527</v>
+        <v>733.707112676266</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>685.1682898090097</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C42" t="n">
-        <v>551.1732185579554</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D42" t="n">
-        <v>434.2760607773478</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E42" t="n">
-        <v>313.7832447696758</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F42" t="n">
-        <v>204.8233649521804</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G42" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692763</v>
       </c>
       <c r="H42" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I42" t="n">
-        <v>62.57863487475248</v>
+        <v>43.01083102505507</v>
       </c>
       <c r="J42" t="n">
-        <v>371.8168719145381</v>
+        <v>352.2490680648407</v>
       </c>
       <c r="K42" t="n">
-        <v>515.5388644458296</v>
+        <v>495.9710605961322</v>
       </c>
       <c r="L42" t="n">
-        <v>727.551448967487</v>
+        <v>707.9836451177896</v>
       </c>
       <c r="M42" t="n">
-        <v>982.7996667264551</v>
+        <v>963.2318628767576</v>
       </c>
       <c r="N42" t="n">
-        <v>1399.455191901287</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O42" t="n">
-        <v>1635.476880655266</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P42" t="n">
-        <v>1817.075202091449</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q42" t="n">
-        <v>1918.25159622554</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R42" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S42" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T42" t="n">
-        <v>1785.412051570318</v>
+        <v>1785.412051570317</v>
       </c>
       <c r="U42" t="n">
-        <v>1588.143959212511</v>
+        <v>1588.14395921251</v>
       </c>
       <c r="V42" t="n">
-        <v>1374.432432205545</v>
+        <v>1374.432432205544</v>
       </c>
       <c r="W42" t="n">
-        <v>1161.199263941874</v>
+        <v>1161.199263941873</v>
       </c>
       <c r="X42" t="n">
-        <v>984.8732820807663</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y42" t="n">
-        <v>825.4713224445964</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>609.132767366841</v>
+        <v>767.2893218560068</v>
       </c>
       <c r="C43" t="n">
-        <v>438.0393949285575</v>
+        <v>596.1959494177233</v>
       </c>
       <c r="D43" t="n">
-        <v>278.5447502514675</v>
+        <v>596.1959494177233</v>
       </c>
       <c r="E43" t="n">
-        <v>278.5447502514675</v>
+        <v>596.1959494177233</v>
       </c>
       <c r="F43" t="n">
-        <v>113.9136243620588</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G43" t="n">
-        <v>40.48643694606873</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H43" t="n">
-        <v>40.48643694606873</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I43" t="n">
         <v>40.48643694606873</v>
@@ -7572,19 +7572,19 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K43" t="n">
-        <v>402.1925459421786</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L43" t="n">
-        <v>501.7072137817917</v>
+        <v>815.6863250168146</v>
       </c>
       <c r="M43" t="n">
-        <v>952.9174321676724</v>
+        <v>921.9301938884097</v>
       </c>
       <c r="N43" t="n">
-        <v>1391.851658743719</v>
+        <v>1360.864420464456</v>
       </c>
       <c r="O43" t="n">
-        <v>1797.43900026122</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P43" t="n">
         <v>1872.284155743751</v>
@@ -7593,28 +7593,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R43" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S43" t="n">
-        <v>1818.423362863342</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T43" t="n">
-        <v>1583.378488176655</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U43" t="n">
-        <v>1300.637836863246</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V43" t="n">
-        <v>1300.637836863246</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W43" t="n">
-        <v>1021.568172372121</v>
+        <v>785.5591605109726</v>
       </c>
       <c r="X43" t="n">
-        <v>1021.568172372121</v>
+        <v>785.5591605109726</v>
       </c>
       <c r="Y43" t="n">
-        <v>796.8324737608854</v>
+        <v>785.5591605109726</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>660.9845388084426</v>
+        <v>1552.511258066309</v>
       </c>
       <c r="C44" t="n">
-        <v>660.9845388084426</v>
+        <v>1552.511258066309</v>
       </c>
       <c r="D44" t="n">
-        <v>660.9845388084426</v>
+        <v>1148.047328159369</v>
       </c>
       <c r="E44" t="n">
-        <v>660.9845388084426</v>
+        <v>733.707112676266</v>
       </c>
       <c r="F44" t="n">
-        <v>239.9541267621302</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G44" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H44" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746557</v>
+        <v>44.64574590746565</v>
       </c>
       <c r="J44" t="n">
-        <v>167.53342714929</v>
+        <v>167.5334271492901</v>
       </c>
       <c r="K44" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752967</v>
       </c>
       <c r="L44" t="n">
-        <v>641.1850750879078</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501312</v>
       </c>
       <c r="N44" t="n">
         <v>1272.218803576257</v>
@@ -7666,7 +7666,7 @@
         <v>1568.017893256778</v>
       </c>
       <c r="P44" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q44" t="n">
         <v>1966.084838463273</v>
@@ -7675,25 +7675,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S44" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T44" t="n">
-        <v>1812.402164354919</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U44" t="n">
-        <v>1812.402164354919</v>
+        <v>1902.348812729828</v>
       </c>
       <c r="V44" t="n">
-        <v>1462.5646096914</v>
+        <v>1552.511258066309</v>
       </c>
       <c r="W44" t="n">
-        <v>1462.5646096914</v>
+        <v>1552.511258066309</v>
       </c>
       <c r="X44" t="n">
-        <v>1061.921211860353</v>
+        <v>1552.511258066309</v>
       </c>
       <c r="Y44" t="n">
-        <v>660.9845388084426</v>
+        <v>1552.511258066309</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I45" t="n">
-        <v>62.57863487475248</v>
+        <v>43.01083102505508</v>
       </c>
       <c r="J45" t="n">
-        <v>371.8168719145381</v>
+        <v>108.5806640902074</v>
       </c>
       <c r="K45" t="n">
-        <v>515.5388644458296</v>
+        <v>252.302656621499</v>
       </c>
       <c r="L45" t="n">
-        <v>727.551448967487</v>
+        <v>464.3152411431564</v>
       </c>
       <c r="M45" t="n">
-        <v>982.7996667264551</v>
+        <v>719.5634589021246</v>
       </c>
       <c r="N45" t="n">
-        <v>1250.639046485604</v>
+        <v>987.4028386612739</v>
       </c>
       <c r="O45" t="n">
-        <v>1486.660735239584</v>
+        <v>1223.424527415253</v>
       </c>
       <c r="P45" t="n">
-        <v>1668.259056675767</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q45" t="n">
-        <v>1918.25159622554</v>
+        <v>2006.221312702521</v>
       </c>
       <c r="R45" t="n">
         <v>2024.321847303436</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>658.7134759705806</v>
+        <v>838.4171486573725</v>
       </c>
       <c r="C46" t="n">
-        <v>487.6201035322971</v>
+        <v>667.323776219089</v>
       </c>
       <c r="D46" t="n">
-        <v>429.9996542518353</v>
+        <v>507.8291315419991</v>
       </c>
       <c r="E46" t="n">
-        <v>429.9996542518353</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3685283624266</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="G46" t="n">
-        <v>265.3685283624266</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H46" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I46" t="n">
         <v>40.48643694606873</v>
@@ -7809,49 +7809,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>195.9123523564645</v>
+        <v>402.1925459421786</v>
       </c>
       <c r="L46" t="n">
-        <v>295.4270201960775</v>
+        <v>815.6863250168147</v>
       </c>
       <c r="M46" t="n">
-        <v>746.6372385819582</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N46" t="n">
-        <v>1185.571465158004</v>
+        <v>1396.967762018483</v>
       </c>
       <c r="O46" t="n">
-        <v>1591.158806675506</v>
+        <v>1802.555103535984</v>
       </c>
       <c r="P46" t="n">
-        <v>1921.785342356391</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q46" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R46" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S46" t="n">
-        <v>1818.423362863342</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T46" t="n">
-        <v>1583.378488176655</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U46" t="n">
-        <v>1583.378488176655</v>
+        <v>1506.536321303341</v>
       </c>
       <c r="V46" t="n">
-        <v>1309.492743116177</v>
+        <v>1506.536321303341</v>
       </c>
       <c r="W46" t="n">
-        <v>1309.492743116177</v>
+        <v>1264.460717191733</v>
       </c>
       <c r="X46" t="n">
-        <v>1071.14888097586</v>
+        <v>1026.116855051417</v>
       </c>
       <c r="Y46" t="n">
-        <v>846.413182364625</v>
+        <v>1026.116855051417</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.28507488358404</v>
+        <v>40.88018142109519</v>
       </c>
       <c r="K2" t="n">
-        <v>35.12399553673127</v>
+        <v>40.5121283012307</v>
       </c>
       <c r="L2" t="n">
-        <v>28.47824703393654</v>
+        <v>35.16270217958864</v>
       </c>
       <c r="M2" t="n">
-        <v>18.73185804160391</v>
+        <v>26.16960234776164</v>
       </c>
       <c r="N2" t="n">
-        <v>17.14749202420371</v>
+        <v>24.70558680915735</v>
       </c>
       <c r="O2" t="n">
-        <v>21.64722461951303</v>
+        <v>28.78411920260946</v>
       </c>
       <c r="P2" t="n">
-        <v>32.58945119244859</v>
+        <v>38.68062560122957</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.18035332317012</v>
+        <v>48.7545716309821</v>
       </c>
       <c r="R2" t="n">
-        <v>60.63953250900509</v>
+        <v>63.30032116317597</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>29.90494529109833</v>
+        <v>32.04616611589456</v>
       </c>
       <c r="K3" t="n">
-        <v>19.13988639553256</v>
+        <v>22.79957383374449</v>
       </c>
       <c r="L3" t="n">
-        <v>6.785808794917678</v>
+        <v>11.70671018907476</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5.742459823057352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.697650023750555</v>
+        <v>9.089916217646909</v>
       </c>
       <c r="P3" t="n">
-        <v>10.87667177962184</v>
+        <v>15.20444079080882</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.69225648436267</v>
+        <v>30.58525545770977</v>
       </c>
       <c r="R3" t="n">
-        <v>44.89460795773296</v>
+        <v>46.3017442093376</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>37.96713772285098</v>
+        <v>39.31047085697391</v>
       </c>
       <c r="K4" t="n">
-        <v>30.12158188642509</v>
+        <v>32.32909088142202</v>
       </c>
       <c r="L4" t="n">
-        <v>26.31106434786214</v>
+        <v>29.1359158427119</v>
       </c>
       <c r="M4" t="n">
-        <v>26.40839431103658</v>
+        <v>29.38680413894989</v>
       </c>
       <c r="N4" t="n">
-        <v>22.56601930391407</v>
+        <v>25.47360920319289</v>
       </c>
       <c r="O4" t="n">
-        <v>29.15327125498115</v>
+        <v>31.8389011340275</v>
       </c>
       <c r="P4" t="n">
-        <v>32.74373904234409</v>
+        <v>35.04175936076656</v>
       </c>
       <c r="Q4" t="n">
-        <v>45.41052227552</v>
+        <v>47.00155242833039</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8455,13 +8455,13 @@
         <v>34.81979492599199</v>
       </c>
       <c r="K8" t="n">
-        <v>31.42917993820346</v>
+        <v>31.42917993820345</v>
       </c>
       <c r="L8" t="n">
         <v>23.89450156601852</v>
       </c>
       <c r="M8" t="n">
-        <v>13.63155801534687</v>
+        <v>13.63155801534685</v>
       </c>
       <c r="N8" t="n">
         <v>11.96466381132231</v>
@@ -8537,7 +8537,7 @@
         <v>16.63032124124894</v>
       </c>
       <c r="L9" t="n">
-        <v>3.411388745407642</v>
+        <v>3.411388745407635</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>7.908981644977509</v>
+        <v>7.908981644977501</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.70843422154195</v>
+        <v>25.70843422154194</v>
       </c>
       <c r="R9" t="n">
         <v>43.92968946019</v>
@@ -8616,7 +8616,7 @@
         <v>28.6078221063498</v>
       </c>
       <c r="L10" t="n">
-        <v>24.37397299861713</v>
+        <v>24.37397299861712</v>
       </c>
       <c r="M10" t="n">
         <v>24.3660030835062</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>11.64596854757495</v>
+        <v>11.40071377142736</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>232.8822208701419</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>116.7584267919998</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.50413106953538</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>6.873929752529683</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.092630477952163</v>
+        <v>1.670413253822304</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>152.6147355425302</v>
+        <v>14.16927827746985</v>
       </c>
       <c r="M13" t="n">
-        <v>216.9824138679677</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>215.0313270144273</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>227.546152812697</v>
+        <v>230.7603832773668</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>244.8240219157649</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.921119391019168</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.76545843403778</v>
+        <v>11.40071377142736</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>232.8822208701421</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>219.6851667883627</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.316200658408079</v>
+        <v>6.873929752529691</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.09263047795217</v>
+        <v>1.670413253822311</v>
       </c>
       <c r="K16" t="n">
-        <v>152.6147355425302</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>154.205121142939</v>
       </c>
       <c r="M16" t="n">
-        <v>216.9824138679677</v>
+        <v>220.1046219339104</v>
       </c>
       <c r="N16" t="n">
-        <v>215.0313270144273</v>
+        <v>218.1757941856667</v>
       </c>
       <c r="O16" t="n">
-        <v>227.546152812697</v>
+        <v>230.7603832773668</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.921119391019175</v>
+        <v>2.421049588851226</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>11.64596854757495</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>7.257433158109308</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>220.5472235167161</v>
+        <v>223.6962766987432</v>
       </c>
       <c r="R18" t="n">
-        <v>7.316200658408071</v>
+        <v>7.695129261318167</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.092630477952163</v>
+        <v>1.670413253822311</v>
       </c>
       <c r="K19" t="n">
-        <v>148.6111992409863</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>220.9859501695116</v>
+        <v>224.1564224905979</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>215.0313270144273</v>
+        <v>145.9016442287583</v>
       </c>
       <c r="O19" t="n">
-        <v>227.546152812697</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>244.8240219157649</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.921119391019168</v>
+        <v>2.421049588851226</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>11.64596854757495</v>
+        <v>11.40071377142736</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>232.8822208701421</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>145.4844401877172</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.32021648710837</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.316200658408071</v>
+        <v>6.873929752529691</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,16 +9564,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>191.9672404088718</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>216.9824138679678</v>
+        <v>220.1046219339104</v>
       </c>
       <c r="N22" t="n">
-        <v>215.0313270144273</v>
+        <v>218.1757941856668</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>195.8495694476525</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>150.3193388037194</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>170.0847972377568</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9798,22 +9798,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>317.1506174091142</v>
+        <v>213.5316129903818</v>
       </c>
       <c r="M25" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
-        <v>78.12986811408938</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>127.5494547533709</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>170.0847972377572</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10038,16 +10038,16 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
-        <v>317.1506174091142</v>
+        <v>77.0231527770016</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>91.19254292893839</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
         <v>263.5328115890082</v>
@@ -10196,7 +10196,7 @@
         <v>360.9067319962717</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>55.30776622596375</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>144.1660656976617</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,16 +10275,16 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952379</v>
+        <v>108.3233934631255</v>
       </c>
       <c r="N31" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>59.89230224281459</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
         <v>263.5328115890082</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>258.9430967094556</v>
+        <v>170.0847972377573</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
-        <v>77.54825615474476</v>
+        <v>5.167781085620092</v>
       </c>
       <c r="M34" t="n">
         <v>348.4508580952379</v>
@@ -10524,10 +10524,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>291.9263360464072</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>124.2881621758282</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10746,10 +10746,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>59.89230224281459</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10758,13 +10758,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>77.54825615474469</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>239.1776382754173</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,16 +10986,16 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>59.89230224281414</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>78.12986811408996</v>
       </c>
       <c r="P40" t="n">
         <v>263.5328115890082</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>150.3193388037195</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>170.0847972377573</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11223,19 +11223,19 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>318.2573327462026</v>
+        <v>91.19254292893839</v>
       </c>
       <c r="P43" t="n">
-        <v>5.167781085620177</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
         <v>127.5494547533709</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>101.1907137812967</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.3193388037195</v>
+        <v>403.8820839126367</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>23.40534695689531</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.54825615474468</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.2163880441079</v>
+        <v>404.2587463296498</v>
       </c>
       <c r="H2" t="n">
-        <v>303.4508422388722</v>
+        <v>303.8846440306781</v>
       </c>
       <c r="I2" t="n">
-        <v>69.11834381539616</v>
+        <v>70.75136161874995</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>124.2523906577833</v>
+        <v>125.2176300895691</v>
       </c>
       <c r="T2" t="n">
-        <v>218.1256748333563</v>
+        <v>218.3110982283159</v>
       </c>
       <c r="U2" t="n">
-        <v>254.4559177653259</v>
+        <v>254.4593064281693</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -22640,13 +22640,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.6930234561154</v>
+        <v>105.7156871369127</v>
       </c>
       <c r="H3" t="n">
-        <v>67.84558205340525</v>
+        <v>68.06446549689447</v>
       </c>
       <c r="I3" t="n">
-        <v>12.71905894793251</v>
+        <v>13.49936550169744</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,13 +22676,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>102.6901904232857</v>
+        <v>103.1111583538838</v>
       </c>
       <c r="T3" t="n">
-        <v>156.8327176907766</v>
+        <v>156.9240682287269</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3623561674602</v>
+        <v>195.3638471990916</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -22719,13 +22719,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.3874202901603</v>
+        <v>165.4064207588183</v>
       </c>
       <c r="H4" t="n">
-        <v>146.4179569850202</v>
+        <v>146.5868884245434</v>
       </c>
       <c r="I4" t="n">
-        <v>109.4547270939081</v>
+        <v>110.0261230059151</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>75.85590789965747</v>
+        <v>76.71023806313595</v>
       </c>
       <c r="S4" t="n">
-        <v>181.2085322879926</v>
+        <v>181.5396586372421</v>
       </c>
       <c r="T4" t="n">
-        <v>236.3394386278895</v>
+        <v>236.4206224485193</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9608132663429</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>136.0047492079444</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>131.8507869500373</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>136.024255498447</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>298.4950075947622</v>
       </c>
       <c r="G11" t="n">
-        <v>403.0851849322705</v>
+        <v>128.8993136530215</v>
       </c>
       <c r="H11" t="n">
-        <v>291.8659083697679</v>
+        <v>291.7295620058568</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>83.49116786520312</v>
+        <v>213.1155535864358</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.364356440425</v>
       </c>
       <c r="V11" t="n">
-        <v>76.22496045698398</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
@@ -23351,10 +23351,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.0877764326451</v>
+        <v>105.0806531092105</v>
       </c>
       <c r="H12" t="n">
-        <v>62.00017001094175</v>
+        <v>61.93137370303386</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>91.44799242154508</v>
+        <v>91.31567981301195</v>
       </c>
       <c r="T12" t="n">
-        <v>20.83961562740467</v>
+        <v>40.72355207806001</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>164.880001517248</v>
+        <v>164.8740295621684</v>
       </c>
       <c r="H13" t="n">
-        <v>141.9065428040363</v>
+        <v>141.8534466943284</v>
       </c>
       <c r="I13" t="n">
-        <v>94.19526072305491</v>
+        <v>94.01566774666021</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>49.29528751288012</v>
+        <v>52.77199389376628</v>
       </c>
       <c r="S13" t="n">
-        <v>172.365606945512</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>234.1458600628331</v>
       </c>
       <c r="U13" t="n">
-        <v>9.817880829629814</v>
+        <v>5.759215916700327</v>
       </c>
       <c r="V13" t="n">
-        <v>1.032668949973129</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>6.164749186314225</v>
+        <v>2.106410016389077</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>115.0465504333253</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>403.0851849322705</v>
+        <v>403.0718714828467</v>
       </c>
       <c r="H14" t="n">
-        <v>291.8659083697679</v>
+        <v>17.55700417603163</v>
       </c>
       <c r="I14" t="n">
-        <v>25.50763584628655</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>98.47509974678954</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.1738332112882</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3654215163789</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>76.22496045698398</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>109.808479196283</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>126.5227451928369</v>
+        <v>197.4466578888605</v>
       </c>
       <c r="Y14" t="n">
-        <v>159.0107025257508</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>113.3518545420097</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
@@ -23588,10 +23588,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>80.01475731694421</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>62.00017001094175</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,16 +23624,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>91.44799242154508</v>
+        <v>91.31567981301195</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>154.3644354591729</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3225372843372</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23658,7 +23658,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23667,13 +23667,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.880001517248</v>
+        <v>164.8740295621684</v>
       </c>
       <c r="H16" t="n">
-        <v>141.9065428040363</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>94.19526072305493</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>49.29528751288012</v>
+        <v>52.77199389376629</v>
       </c>
       <c r="S16" t="n">
-        <v>172.3656069455121</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>234.1458600628331</v>
       </c>
       <c r="U16" t="n">
-        <v>9.817880829629814</v>
+        <v>5.759215916700384</v>
       </c>
       <c r="V16" t="n">
-        <v>1.032668949973129</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>6.164749186314225</v>
+        <v>52.47300797698585</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -23740,19 +23740,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>140.0825946683721</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>146.7058892659492</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>165.1685811366306</v>
+        <v>403.0718714828467</v>
       </c>
       <c r="H17" t="n">
-        <v>21.75168970986778</v>
+        <v>17.55700417603163</v>
       </c>
       <c r="I17" t="n">
-        <v>25.50763584628654</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>98.47509974678952</v>
+        <v>98.17171951804576</v>
       </c>
       <c r="T17" t="n">
-        <v>213.1738332112882</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3654215163789</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>323.1497114647871</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>105.7501400263579</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>70.43282093645334</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.0877764326451</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>62.00017001094175</v>
+        <v>61.93137370303386</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>91.44799242154508</v>
+        <v>91.31567981301195</v>
       </c>
       <c r="T18" t="n">
-        <v>154.3931474514378</v>
+        <v>154.3644354591729</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>91.81971984511567</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>178.0629743979597</v>
+        <v>130.4506668026332</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.880001517248</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>141.8534466943284</v>
       </c>
       <c r="I19" t="n">
-        <v>94.19526072305491</v>
+        <v>94.01566774666023</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>53.04051471034676</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>172.2615320556243</v>
       </c>
       <c r="T19" t="n">
-        <v>234.1713765981734</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9320994895299</v>
+        <v>279.9317737465256</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>131.9464100380193</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>131.8507869500373</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>140.0825946683721</v>
+        <v>148.8974230023621</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>132.9709662723703</v>
+        <v>403.0718714828467</v>
       </c>
       <c r="H20" t="n">
-        <v>291.8659083697679</v>
+        <v>291.7295620058568</v>
       </c>
       <c r="I20" t="n">
-        <v>25.50763584628654</v>
+        <v>24.9943690873773</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>98.47509974678952</v>
+        <v>98.17171951804576</v>
       </c>
       <c r="T20" t="n">
-        <v>213.1738332112882</v>
+        <v>213.1155535864358</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3654215163789</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>109.8084791962829</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>159.0107025257508</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.0806531092105</v>
       </c>
       <c r="H21" t="n">
-        <v>62.00017001094175</v>
+        <v>61.93137370303386</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>91.44799242154508</v>
+        <v>91.31567981301195</v>
       </c>
       <c r="T21" t="n">
-        <v>142.6821740627375</v>
+        <v>154.3644354591729</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>34.59799428745029</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,13 +24141,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.880001517248</v>
+        <v>164.8740295621684</v>
       </c>
       <c r="H22" t="n">
-        <v>141.9065428040363</v>
+        <v>141.8534466943284</v>
       </c>
       <c r="I22" t="n">
-        <v>94.19526072305491</v>
+        <v>94.01566774666023</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.14149237189325</v>
+        <v>52.77199389376629</v>
       </c>
       <c r="S22" t="n">
-        <v>172.365606945512</v>
+        <v>172.2615320556243</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>9.817880829629768</v>
+        <v>5.759215916700384</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>6.164749186314168</v>
+        <v>2.106410016389134</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.5894244252846</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>75.58146825590552</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H23" t="n">
-        <v>283.9738944557603</v>
+        <v>62.57745976978038</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>166.7807145144171</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24378,7 +24378,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5343322142292</v>
+        <v>127.4755471329522</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>355.7509693609556</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>209.8004861190321</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>303.7845940153936</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>159.631181066439</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U28" t="n">
-        <v>5.109591359449269</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -24694,10 +24694,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>268.2182067899757</v>
       </c>
       <c r="H29" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>25.32061789134548</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>38.44287985227034</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>166.3415337283568</v>
       </c>
       <c r="T31" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>264.4365349479555</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>57.06092241994367</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -24934,7 +24934,7 @@
         <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>256.4456865472974</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>56.7090273322334</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>264.4365349479553</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>296.0668036979772</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>335.3499996972507</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>62.19933649651189</v>
       </c>
       <c r="G37" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H37" t="n">
-        <v>120.8409131490421</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>37.4979658673368</v>
       </c>
       <c r="S37" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>75.58146825590552</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.3145745171349</v>
+        <v>262.0103614707549</v>
       </c>
       <c r="H38" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>73.09077554987149</v>
       </c>
       <c r="D40" t="n">
-        <v>19.50565056100123</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.8332284553781</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S40" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>72.08948396942543</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.91481491188677</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>10.57697187146329</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>167.7355690616879</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>91.84141667239905</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25870,19 +25870,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>204.8415615992341</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188677</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3037726831681</v>
+        <v>214.4652833671826</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>100.8554534426619</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>36.62411977572305</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>137091.5358088113</v>
+        <v>138814.3412851214</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>333974.2109135148</v>
+        <v>337083.2432122952</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>333974.2109135148</v>
+        <v>337083.2432122953</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>333974.2109135146</v>
+        <v>337083.2432122953</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>333974.2109135148</v>
+        <v>337083.2432122952</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>514362.9258060143</v>
+        <v>514362.9258060142</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>514362.9258060143</v>
+        <v>514362.9258060144</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>514362.9258060143</v>
+        <v>514362.9258060142</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>514362.9258060144</v>
+        <v>514362.9258060143</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>514362.9258060142</v>
+        <v>514362.9258060143</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52893.10114838353</v>
+        <v>52697.00667341307</v>
       </c>
       <c r="C2" t="n">
         <v>52893.10114838352</v>
@@ -26322,19 +26322,19 @@
         <v>53027.56942460709</v>
       </c>
       <c r="E2" t="n">
-        <v>138298.2527014503</v>
+        <v>139561.633979137</v>
       </c>
       <c r="F2" t="n">
-        <v>138298.2527014502</v>
+        <v>139561.633979137</v>
       </c>
       <c r="G2" t="n">
-        <v>138298.2527014503</v>
+        <v>139561.6339791369</v>
       </c>
       <c r="H2" t="n">
-        <v>138298.2527014503</v>
+        <v>139561.6339791369</v>
       </c>
       <c r="I2" t="n">
-        <v>211565.4642249999</v>
+        <v>211565.464225</v>
       </c>
       <c r="J2" t="n">
         <v>211565.4642249999</v>
@@ -26346,13 +26346,13 @@
         <v>211565.4642249999</v>
       </c>
       <c r="M2" t="n">
-        <v>211565.4642249998</v>
+        <v>211565.4642249999</v>
       </c>
       <c r="N2" t="n">
         <v>211565.4642249999</v>
       </c>
       <c r="O2" t="n">
-        <v>211565.464225</v>
+        <v>211565.4642249999</v>
       </c>
       <c r="P2" t="n">
         <v>211565.464225</v>
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101779.2516440874</v>
+        <v>91626.02423587498</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9594.670458340697</v>
       </c>
       <c r="D3" t="n">
         <v>6187.848917519347</v>
       </c>
       <c r="E3" t="n">
-        <v>300912.3131398089</v>
+        <v>304784.6901528256</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.32519718148824e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>207042.3389204353</v>
+        <v>203470.2469821349</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>67313.54374692174</v>
+        <v>68324.89810142379</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13674.29979591643</v>
+        <v>15854.65904715763</v>
       </c>
       <c r="C4" t="n">
         <v>13674.29979591643</v>
@@ -26426,16 +26426,16 @@
         <v>12241.76831233858</v>
       </c>
       <c r="E4" t="n">
-        <v>11512.51789743909</v>
+        <v>11677.17974324428</v>
       </c>
       <c r="F4" t="n">
-        <v>11512.5178974391</v>
+        <v>11677.17974324428</v>
       </c>
       <c r="G4" t="n">
-        <v>11512.51789743909</v>
+        <v>11677.17974324428</v>
       </c>
       <c r="H4" t="n">
-        <v>11512.5178974391</v>
+        <v>11677.17974324428</v>
       </c>
       <c r="I4" t="n">
         <v>21149.02438694226</v>
@@ -26444,19 +26444,19 @@
         <v>21149.02438694226</v>
       </c>
       <c r="K4" t="n">
+        <v>21149.02438694227</v>
+      </c>
+      <c r="L4" t="n">
         <v>21149.02438694226</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21149.02438694227</v>
       </c>
       <c r="M4" t="n">
         <v>21149.02438694226</v>
       </c>
       <c r="N4" t="n">
-        <v>21149.02438694225</v>
+        <v>21149.02438694226</v>
       </c>
       <c r="O4" t="n">
-        <v>21149.02438694226</v>
+        <v>21149.02438694227</v>
       </c>
       <c r="P4" t="n">
         <v>21149.02438694226</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35930.17134953669</v>
+        <v>35700.4729566144</v>
       </c>
       <c r="C5" t="n">
         <v>35930.17134953669</v>
@@ -26478,19 +26478,19 @@
         <v>36087.68291100337</v>
       </c>
       <c r="E5" t="n">
-        <v>24859.74751877464</v>
+        <v>25178.69004816875</v>
       </c>
       <c r="F5" t="n">
-        <v>24859.74751877464</v>
+        <v>25178.69004816874</v>
       </c>
       <c r="G5" t="n">
-        <v>24859.74751877464</v>
+        <v>25178.69004816874</v>
       </c>
       <c r="H5" t="n">
-        <v>24859.74751877464</v>
+        <v>25178.69004816874</v>
       </c>
       <c r="I5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194158</v>
       </c>
       <c r="J5" t="n">
         <v>43385.32273194158</v>
@@ -26505,7 +26505,7 @@
         <v>43385.32273194158</v>
       </c>
       <c r="N5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194158</v>
       </c>
       <c r="O5" t="n">
         <v>43385.32273194158</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98490.62164115701</v>
+        <v>-91862.03536954227</v>
       </c>
       <c r="C6" t="n">
-        <v>3288.630002930397</v>
+        <v>-7682.992475504476</v>
       </c>
       <c r="D6" t="n">
-        <v>-1489.730716254206</v>
+        <v>-2866.042411223503</v>
       </c>
       <c r="E6" t="n">
-        <v>-198986.3258545724</v>
+        <v>-203043.1706860017</v>
       </c>
       <c r="F6" t="n">
-        <v>101925.9872852365</v>
+        <v>101741.5194668238</v>
       </c>
       <c r="G6" t="n">
-        <v>101925.9872852366</v>
+        <v>101741.5194668238</v>
       </c>
       <c r="H6" t="n">
-        <v>101925.9872852365</v>
+        <v>101741.5194668238</v>
       </c>
       <c r="I6" t="n">
-        <v>-60011.22181431926</v>
+        <v>-57060.49921479564</v>
       </c>
       <c r="J6" t="n">
-        <v>147031.117106116</v>
+        <v>146409.7477673391</v>
       </c>
       <c r="K6" t="n">
-        <v>147031.117106116</v>
+        <v>146409.7477673391</v>
       </c>
       <c r="L6" t="n">
-        <v>147031.1171061161</v>
+        <v>146409.7477673391</v>
       </c>
       <c r="M6" t="n">
-        <v>79717.57335919424</v>
+        <v>78084.84966591527</v>
       </c>
       <c r="N6" t="n">
-        <v>147031.1171061161</v>
+        <v>146409.7477673391</v>
       </c>
       <c r="O6" t="n">
-        <v>147031.1171061161</v>
+        <v>146409.7477673391</v>
       </c>
       <c r="P6" t="n">
-        <v>147031.1171061161</v>
+        <v>146409.7477673392</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.6225389695733</v>
+        <v>95.08591544102765</v>
       </c>
       <c r="C3" t="n">
         <v>105.6225389695733</v>
@@ -26746,16 +26746,16 @@
         <v>112.8478399542832</v>
       </c>
       <c r="E3" t="n">
-        <v>387.0093130391152</v>
+        <v>390.3210335832738</v>
       </c>
       <c r="F3" t="n">
-        <v>387.0093130391152</v>
+        <v>390.3210335832738</v>
       </c>
       <c r="G3" t="n">
-        <v>387.0093130391152</v>
+        <v>390.3210335832738</v>
       </c>
       <c r="H3" t="n">
-        <v>387.0093130391152</v>
+        <v>390.3210335832738</v>
       </c>
       <c r="I3" t="n">
         <v>578.6986538040985</v>
@@ -26776,7 +26776,7 @@
         <v>578.6986538040985</v>
       </c>
       <c r="O3" t="n">
-        <v>578.6986538040986</v>
+        <v>578.6986538040985</v>
       </c>
       <c r="P3" t="n">
         <v>578.6986538040986</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298253</v>
       </c>
       <c r="F4" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="G4" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="H4" t="n">
-        <v>270.1142186599002</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="I4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="J4" t="n">
         <v>506.0804618258591</v>
@@ -26825,7 +26825,7 @@
         <v>506.0804618258591</v>
       </c>
       <c r="N4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="O4" t="n">
         <v>506.0804618258591</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.6225389695733</v>
+        <v>95.08591544102765</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>10.53662352854562</v>
       </c>
       <c r="D3" t="n">
         <v>7.225300984709904</v>
       </c>
       <c r="E3" t="n">
-        <v>274.161473084832</v>
+        <v>277.4731936289907</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>191.6893407649833</v>
+        <v>188.3776202208247</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298253</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.213199256248332e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>235.9662431659588</v>
+        <v>231.9079039960338</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298253</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298253</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.213199256248332e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4246132219882339</v>
+        <v>0.3822549364463421</v>
       </c>
       <c r="H2" t="n">
-        <v>4.348570159687002</v>
+        <v>3.914768367881102</v>
       </c>
       <c r="I2" t="n">
-        <v>16.36990124070141</v>
+        <v>14.73688343734762</v>
       </c>
       <c r="J2" t="n">
-        <v>36.0385164497239</v>
+        <v>32.44340991221275</v>
       </c>
       <c r="K2" t="n">
-        <v>54.01239413648585</v>
+        <v>48.62426137198642</v>
       </c>
       <c r="L2" t="n">
-        <v>67.00715102890828</v>
+        <v>60.32269588325618</v>
       </c>
       <c r="M2" t="n">
-        <v>74.55836641544154</v>
+        <v>67.12062210928381</v>
       </c>
       <c r="N2" t="n">
-        <v>75.76479873241561</v>
+        <v>68.20670394746197</v>
       </c>
       <c r="O2" t="n">
-        <v>71.5425510062701</v>
+        <v>64.40565642317367</v>
       </c>
       <c r="P2" t="n">
-        <v>61.05991208843557</v>
+        <v>54.96873767965459</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.85345107598193</v>
+        <v>41.27923276816995</v>
       </c>
       <c r="R2" t="n">
-        <v>26.67261030571842</v>
+        <v>24.01182165154755</v>
       </c>
       <c r="S2" t="n">
-        <v>9.675873796056891</v>
+        <v>8.710634364271028</v>
       </c>
       <c r="T2" t="n">
-        <v>1.858744379253495</v>
+        <v>1.673320984293863</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03396905775905871</v>
+        <v>0.03058039491570735</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2271881026892708</v>
+        <v>0.2045244218920218</v>
       </c>
       <c r="H3" t="n">
-        <v>2.194158781235853</v>
+        <v>1.975275337746631</v>
       </c>
       <c r="I3" t="n">
-        <v>7.82204651802972</v>
+        <v>7.041739964264785</v>
       </c>
       <c r="J3" t="n">
-        <v>21.46429350890168</v>
+        <v>19.32307268410544</v>
       </c>
       <c r="K3" t="n">
-        <v>36.68589638908283</v>
+        <v>33.0262089508709</v>
       </c>
       <c r="L3" t="n">
-        <v>49.32871501593137</v>
+        <v>44.40781362177429</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>51.82182391536007</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>54.05382897624944</v>
+        <v>48.66156278235309</v>
       </c>
       <c r="P3" t="n">
-        <v>43.3829632231819</v>
+        <v>39.05519421199493</v>
       </c>
       <c r="Q3" t="n">
-        <v>29.00036202047605</v>
+        <v>26.10736304712895</v>
       </c>
       <c r="R3" t="n">
-        <v>14.10559114767245</v>
+        <v>12.69845489606781</v>
       </c>
       <c r="S3" t="n">
-        <v>4.219919363548514</v>
+        <v>3.798951432950489</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9157274840852623</v>
+        <v>0.8243769461349471</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01494658570324151</v>
+        <v>0.01345555407184354</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1904668735516895</v>
+        <v>0.1714664048936564</v>
       </c>
       <c r="H4" t="n">
-        <v>1.693423657577749</v>
+        <v>1.52449221805451</v>
       </c>
       <c r="I4" t="n">
-        <v>5.727858342808991</v>
+        <v>5.15646243080196</v>
       </c>
       <c r="J4" t="n">
-        <v>13.46600796010445</v>
+        <v>12.12267482598151</v>
       </c>
       <c r="K4" t="n">
-        <v>22.12878767264174</v>
+        <v>19.9212786776448</v>
       </c>
       <c r="L4" t="n">
-        <v>28.31722954603937</v>
+        <v>25.49237805118961</v>
       </c>
       <c r="M4" t="n">
-        <v>29.85654818774347</v>
+        <v>26.87813835983015</v>
       </c>
       <c r="N4" t="n">
-        <v>29.14662620450537</v>
+        <v>26.23903630522655</v>
       </c>
       <c r="O4" t="n">
-        <v>26.92162681801517</v>
+        <v>24.23599693896883</v>
       </c>
       <c r="P4" t="n">
-        <v>23.03610259756069</v>
+        <v>20.73808227913822</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.94900338440556</v>
+        <v>14.35797323159518</v>
       </c>
       <c r="R4" t="n">
-        <v>8.564083241696872</v>
+        <v>7.709753078218404</v>
       </c>
       <c r="S4" t="n">
-        <v>3.31931815089626</v>
+        <v>2.98819180164672</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8138130051754003</v>
+        <v>0.7326291845456226</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01038910219372853</v>
+        <v>0.009352712994199451</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31518,7 +31518,7 @@
         <v>0.4536596581076707</v>
       </c>
       <c r="H8" t="n">
-        <v>4.646041973595183</v>
+        <v>4.646041973595184</v>
       </c>
       <c r="I8" t="n">
         <v>17.48971396919599</v>
@@ -31527,13 +31527,13 @@
         <v>38.50379640731595</v>
       </c>
       <c r="K8" t="n">
-        <v>57.70720973501366</v>
+        <v>57.70720973501367</v>
       </c>
       <c r="L8" t="n">
         <v>71.5908964968263</v>
       </c>
       <c r="M8" t="n">
-        <v>79.65866644169859</v>
+        <v>79.6586664416986</v>
       </c>
       <c r="N8" t="n">
         <v>80.94762694529702</v>
@@ -31554,7 +31554,7 @@
         <v>10.33776945912856</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98589515336633</v>
+        <v>1.985895153366329</v>
       </c>
       <c r="U8" t="n">
         <v>0.03629277264861365</v>
@@ -31609,7 +31609,7 @@
         <v>39.19546154336646</v>
       </c>
       <c r="L9" t="n">
-        <v>52.70313506544141</v>
+        <v>52.70313506544142</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -31621,10 +31621,10 @@
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>46.35065335782624</v>
+        <v>46.35065335782625</v>
       </c>
       <c r="Q9" t="n">
-        <v>30.98418428329677</v>
+        <v>30.98418428329678</v>
       </c>
       <c r="R9" t="n">
         <v>15.07050964521541</v>
@@ -31636,7 +31636,7 @@
         <v>0.9783694803583604</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.0159690339557948</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.555816333825588</v>
+        <v>1.569129783249341</v>
       </c>
       <c r="H11" t="n">
-        <v>15.9335040287913</v>
+        <v>16.06985039270232</v>
       </c>
       <c r="I11" t="n">
-        <v>59.98060920981103</v>
+        <v>60.49387596872027</v>
       </c>
       <c r="J11" t="n">
-        <v>132.0479665630296</v>
+        <v>133.1779289410589</v>
       </c>
       <c r="K11" t="n">
-        <v>197.9056719738668</v>
+        <v>199.5991926660035</v>
       </c>
       <c r="L11" t="n">
-        <v>245.5194861001816</v>
+        <v>247.6204482701206</v>
       </c>
       <c r="M11" t="n">
-        <v>273.1877348268524</v>
+        <v>275.525460052981</v>
       </c>
       <c r="N11" t="n">
-        <v>277.6081979853344</v>
+        <v>279.9837500496382</v>
       </c>
       <c r="O11" t="n">
-        <v>262.1375493158562</v>
+        <v>264.3807157674526</v>
       </c>
       <c r="P11" t="n">
-        <v>223.7283335745369</v>
+        <v>225.6428242434845</v>
       </c>
       <c r="Q11" t="n">
-        <v>168.010661119408</v>
+        <v>169.4483638808674</v>
       </c>
       <c r="R11" t="n">
-        <v>97.73054777967165</v>
+        <v>98.5668487470365</v>
       </c>
       <c r="S11" t="n">
-        <v>35.45316470705062</v>
+        <v>35.75654493579439</v>
       </c>
       <c r="T11" t="n">
-        <v>6.810586001321513</v>
+        <v>6.868865626173993</v>
       </c>
       <c r="U11" t="n">
-        <v>0.124465306706047</v>
+        <v>0.1255303826599473</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8324351261596064</v>
+        <v>0.8395584495942117</v>
       </c>
       <c r="H12" t="n">
-        <v>8.039570823699357</v>
+        <v>8.108367131607256</v>
       </c>
       <c r="I12" t="n">
-        <v>28.66059535242505</v>
+        <v>28.90585012857264</v>
       </c>
       <c r="J12" t="n">
-        <v>78.64686426580738</v>
+        <v>79.31986211714437</v>
       </c>
       <c r="K12" t="n">
-        <v>134.420017718501</v>
+        <v>135.5702782399565</v>
       </c>
       <c r="L12" t="n">
-        <v>180.7443022830321</v>
+        <v>182.2909695050941</v>
       </c>
       <c r="M12" t="n">
-        <v>210.9200756063178</v>
+        <v>212.7249633028842</v>
       </c>
       <c r="N12" t="n">
-        <v>216.5025023953443</v>
+        <v>218.3551600986279</v>
       </c>
       <c r="O12" t="n">
-        <v>198.0574924946498</v>
+        <v>199.752312347093</v>
       </c>
       <c r="P12" t="n">
-        <v>158.958598783934</v>
+        <v>160.3188411334772</v>
       </c>
       <c r="Q12" t="n">
-        <v>106.2596136480227</v>
+        <v>107.1688996359208</v>
       </c>
       <c r="R12" t="n">
-        <v>51.68399844699734</v>
+        <v>52.12626935287572</v>
       </c>
       <c r="S12" t="n">
-        <v>15.46211736528917</v>
+        <v>15.5944299738223</v>
       </c>
       <c r="T12" t="n">
-        <v>3.355297723424026</v>
+        <v>3.384009715688948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05476546882628992</v>
+        <v>0.055234108525935</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6978856464639782</v>
+        <v>0.7038576015436084</v>
       </c>
       <c r="H13" t="n">
-        <v>6.204837838561557</v>
+        <v>6.257933948269542</v>
       </c>
       <c r="I13" t="n">
-        <v>20.98732471366219</v>
+        <v>21.16691769005689</v>
       </c>
       <c r="J13" t="n">
-        <v>49.34051520500326</v>
+        <v>49.76273242913312</v>
       </c>
       <c r="K13" t="n">
-        <v>81.08162328917854</v>
+        <v>81.77545588843013</v>
       </c>
       <c r="L13" t="n">
-        <v>103.75656238429</v>
+        <v>104.6444292331289</v>
       </c>
       <c r="M13" t="n">
-        <v>109.3967472907125</v>
+        <v>110.3328783946949</v>
       </c>
       <c r="N13" t="n">
-        <v>106.7955371538923</v>
+        <v>107.7094091525779</v>
       </c>
       <c r="O13" t="n">
-        <v>98.64296392019943</v>
+        <v>99.48707262545481</v>
       </c>
       <c r="P13" t="n">
-        <v>84.40609673233421</v>
+        <v>85.12837755396512</v>
       </c>
       <c r="Q13" t="n">
-        <v>58.4384062689064</v>
+        <v>58.93847607107435</v>
       </c>
       <c r="R13" t="n">
-        <v>31.37947643100759</v>
+        <v>31.64799724758806</v>
       </c>
       <c r="S13" t="n">
-        <v>12.16224349337678</v>
+        <v>12.26631838326452</v>
       </c>
       <c r="T13" t="n">
-        <v>2.981875034891543</v>
+        <v>3.007391570231781</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03806648980712612</v>
+        <v>0.0383922328114696</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.555816333825587</v>
+        <v>1.569129783249341</v>
       </c>
       <c r="H14" t="n">
-        <v>15.9335040287913</v>
+        <v>16.06985039270231</v>
       </c>
       <c r="I14" t="n">
-        <v>59.98060920981102</v>
+        <v>60.49387596872027</v>
       </c>
       <c r="J14" t="n">
-        <v>132.0479665630296</v>
+        <v>133.1779289410588</v>
       </c>
       <c r="K14" t="n">
-        <v>197.9056719738667</v>
+        <v>199.5991926660035</v>
       </c>
       <c r="L14" t="n">
-        <v>245.5194861001816</v>
+        <v>247.6204482701205</v>
       </c>
       <c r="M14" t="n">
-        <v>273.1877348268524</v>
+        <v>275.525460052981</v>
       </c>
       <c r="N14" t="n">
-        <v>277.6081979853344</v>
+        <v>279.9837500496382</v>
       </c>
       <c r="O14" t="n">
-        <v>262.1375493158562</v>
+        <v>264.3807157674526</v>
       </c>
       <c r="P14" t="n">
-        <v>223.7283335745369</v>
+        <v>225.6428242434844</v>
       </c>
       <c r="Q14" t="n">
-        <v>168.010661119408</v>
+        <v>169.4483638808674</v>
       </c>
       <c r="R14" t="n">
-        <v>97.73054777967164</v>
+        <v>98.56684874703649</v>
       </c>
       <c r="S14" t="n">
-        <v>35.45316470705061</v>
+        <v>35.75654493579439</v>
       </c>
       <c r="T14" t="n">
-        <v>6.810586001321512</v>
+        <v>6.868865626173992</v>
       </c>
       <c r="U14" t="n">
-        <v>0.124465306706047</v>
+        <v>0.1255303826599472</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8324351261596062</v>
+        <v>0.8395584495942116</v>
       </c>
       <c r="H15" t="n">
-        <v>8.039570823699357</v>
+        <v>8.108367131607254</v>
       </c>
       <c r="I15" t="n">
-        <v>28.66059535242504</v>
+        <v>28.90585012857264</v>
       </c>
       <c r="J15" t="n">
-        <v>78.64686426580737</v>
+        <v>79.31986211714435</v>
       </c>
       <c r="K15" t="n">
-        <v>134.420017718501</v>
+        <v>135.5702782399565</v>
       </c>
       <c r="L15" t="n">
-        <v>180.7443022830321</v>
+        <v>182.2909695050941</v>
       </c>
       <c r="M15" t="n">
-        <v>210.9200756063177</v>
+        <v>212.7249633028842</v>
       </c>
       <c r="N15" t="n">
-        <v>216.5025023953443</v>
+        <v>218.3551600986279</v>
       </c>
       <c r="O15" t="n">
-        <v>198.0574924946498</v>
+        <v>199.752312347093</v>
       </c>
       <c r="P15" t="n">
-        <v>158.958598783934</v>
+        <v>160.3188411334771</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.2596136480227</v>
+        <v>107.1688996359208</v>
       </c>
       <c r="R15" t="n">
-        <v>51.68399844699733</v>
+        <v>52.12626935287572</v>
       </c>
       <c r="S15" t="n">
-        <v>15.46211736528917</v>
+        <v>15.5944299738223</v>
       </c>
       <c r="T15" t="n">
-        <v>3.355297723424026</v>
+        <v>3.384009715688948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05476546882628991</v>
+        <v>0.05523410852593499</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6978856464639781</v>
+        <v>0.7038576015436084</v>
       </c>
       <c r="H16" t="n">
-        <v>6.204837838561556</v>
+        <v>6.257933948269541</v>
       </c>
       <c r="I16" t="n">
-        <v>20.98732471366218</v>
+        <v>21.16691769005688</v>
       </c>
       <c r="J16" t="n">
-        <v>49.34051520500325</v>
+        <v>49.76273242913311</v>
       </c>
       <c r="K16" t="n">
-        <v>81.08162328917852</v>
+        <v>81.77545588843012</v>
       </c>
       <c r="L16" t="n">
-        <v>103.75656238429</v>
+        <v>104.6444292331288</v>
       </c>
       <c r="M16" t="n">
-        <v>109.3967472907125</v>
+        <v>110.3328783946949</v>
       </c>
       <c r="N16" t="n">
-        <v>106.7955371538923</v>
+        <v>107.7094091525779</v>
       </c>
       <c r="O16" t="n">
-        <v>98.64296392019942</v>
+        <v>99.4870726254548</v>
       </c>
       <c r="P16" t="n">
-        <v>84.40609673233419</v>
+        <v>85.12837755396511</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.43840626890639</v>
+        <v>58.93847607107434</v>
       </c>
       <c r="R16" t="n">
-        <v>31.37947643100759</v>
+        <v>31.64799724758806</v>
       </c>
       <c r="S16" t="n">
-        <v>12.16224349337678</v>
+        <v>12.26631838326452</v>
       </c>
       <c r="T16" t="n">
-        <v>2.981875034891542</v>
+        <v>3.007391570231781</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03806648980712612</v>
+        <v>0.03839223281146959</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.555816333825588</v>
+        <v>1.569129783249341</v>
       </c>
       <c r="H17" t="n">
-        <v>15.9335040287913</v>
+        <v>16.06985039270231</v>
       </c>
       <c r="I17" t="n">
-        <v>59.98060920981103</v>
+        <v>60.49387596872027</v>
       </c>
       <c r="J17" t="n">
-        <v>132.0479665630296</v>
+        <v>133.1779289410588</v>
       </c>
       <c r="K17" t="n">
-        <v>197.9056719738668</v>
+        <v>199.5991926660035</v>
       </c>
       <c r="L17" t="n">
-        <v>245.5194861001816</v>
+        <v>247.6204482701205</v>
       </c>
       <c r="M17" t="n">
-        <v>273.1877348268524</v>
+        <v>275.525460052981</v>
       </c>
       <c r="N17" t="n">
-        <v>277.6081979853344</v>
+        <v>279.9837500496382</v>
       </c>
       <c r="O17" t="n">
-        <v>262.1375493158562</v>
+        <v>264.3807157674526</v>
       </c>
       <c r="P17" t="n">
-        <v>223.7283335745369</v>
+        <v>225.6428242434844</v>
       </c>
       <c r="Q17" t="n">
-        <v>168.010661119408</v>
+        <v>169.4483638808674</v>
       </c>
       <c r="R17" t="n">
-        <v>97.73054777967165</v>
+        <v>98.56684874703649</v>
       </c>
       <c r="S17" t="n">
-        <v>35.45316470705062</v>
+        <v>35.75654493579439</v>
       </c>
       <c r="T17" t="n">
-        <v>6.810586001321513</v>
+        <v>6.868865626173992</v>
       </c>
       <c r="U17" t="n">
-        <v>0.124465306706047</v>
+        <v>0.1255303826599472</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8324351261596064</v>
+        <v>0.8395584495942116</v>
       </c>
       <c r="H18" t="n">
-        <v>8.039570823699357</v>
+        <v>8.108367131607254</v>
       </c>
       <c r="I18" t="n">
-        <v>28.66059535242505</v>
+        <v>28.90585012857264</v>
       </c>
       <c r="J18" t="n">
-        <v>78.64686426580738</v>
+        <v>79.31986211714435</v>
       </c>
       <c r="K18" t="n">
-        <v>134.420017718501</v>
+        <v>135.5702782399565</v>
       </c>
       <c r="L18" t="n">
-        <v>180.7443022830321</v>
+        <v>182.2909695050941</v>
       </c>
       <c r="M18" t="n">
-        <v>210.9200756063178</v>
+        <v>212.7249633028842</v>
       </c>
       <c r="N18" t="n">
-        <v>216.5025023953443</v>
+        <v>218.3551600986279</v>
       </c>
       <c r="O18" t="n">
-        <v>198.0574924946498</v>
+        <v>199.752312347093</v>
       </c>
       <c r="P18" t="n">
-        <v>158.958598783934</v>
+        <v>160.3188411334771</v>
       </c>
       <c r="Q18" t="n">
-        <v>106.2596136480227</v>
+        <v>107.1688996359208</v>
       </c>
       <c r="R18" t="n">
-        <v>51.68399844699734</v>
+        <v>52.12626935287572</v>
       </c>
       <c r="S18" t="n">
-        <v>15.46211736528917</v>
+        <v>15.5944299738223</v>
       </c>
       <c r="T18" t="n">
-        <v>3.355297723424026</v>
+        <v>3.384009715688948</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05476546882628992</v>
+        <v>0.05523410852593499</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6978856464639782</v>
+        <v>0.7038576015436084</v>
       </c>
       <c r="H19" t="n">
-        <v>6.204837838561557</v>
+        <v>6.257933948269541</v>
       </c>
       <c r="I19" t="n">
-        <v>20.98732471366219</v>
+        <v>21.16691769005688</v>
       </c>
       <c r="J19" t="n">
-        <v>49.34051520500326</v>
+        <v>49.76273242913311</v>
       </c>
       <c r="K19" t="n">
-        <v>81.08162328917854</v>
+        <v>81.77545588843012</v>
       </c>
       <c r="L19" t="n">
-        <v>103.75656238429</v>
+        <v>104.6444292331288</v>
       </c>
       <c r="M19" t="n">
-        <v>109.3967472907125</v>
+        <v>110.3328783946949</v>
       </c>
       <c r="N19" t="n">
-        <v>106.7955371538923</v>
+        <v>107.7094091525779</v>
       </c>
       <c r="O19" t="n">
-        <v>98.64296392019943</v>
+        <v>99.4870726254548</v>
       </c>
       <c r="P19" t="n">
-        <v>84.40609673233421</v>
+        <v>85.12837755396511</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.4384062689064</v>
+        <v>58.93847607107434</v>
       </c>
       <c r="R19" t="n">
-        <v>31.37947643100759</v>
+        <v>31.64799724758806</v>
       </c>
       <c r="S19" t="n">
-        <v>12.16224349337678</v>
+        <v>12.26631838326452</v>
       </c>
       <c r="T19" t="n">
-        <v>2.981875034891543</v>
+        <v>3.007391570231781</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03806648980712612</v>
+        <v>0.03839223281146959</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.555816333825588</v>
+        <v>1.569129783249341</v>
       </c>
       <c r="H20" t="n">
-        <v>15.9335040287913</v>
+        <v>16.06985039270231</v>
       </c>
       <c r="I20" t="n">
-        <v>59.98060920981103</v>
+        <v>60.49387596872027</v>
       </c>
       <c r="J20" t="n">
-        <v>132.0479665630296</v>
+        <v>133.1779289410588</v>
       </c>
       <c r="K20" t="n">
-        <v>197.9056719738668</v>
+        <v>199.5991926660035</v>
       </c>
       <c r="L20" t="n">
-        <v>245.5194861001816</v>
+        <v>247.6204482701205</v>
       </c>
       <c r="M20" t="n">
-        <v>273.1877348268524</v>
+        <v>275.525460052981</v>
       </c>
       <c r="N20" t="n">
-        <v>277.6081979853344</v>
+        <v>279.9837500496382</v>
       </c>
       <c r="O20" t="n">
-        <v>262.1375493158562</v>
+        <v>264.3807157674526</v>
       </c>
       <c r="P20" t="n">
-        <v>223.7283335745369</v>
+        <v>225.6428242434844</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.010661119408</v>
+        <v>169.4483638808674</v>
       </c>
       <c r="R20" t="n">
-        <v>97.73054777967165</v>
+        <v>98.56684874703649</v>
       </c>
       <c r="S20" t="n">
-        <v>35.45316470705062</v>
+        <v>35.75654493579439</v>
       </c>
       <c r="T20" t="n">
-        <v>6.810586001321513</v>
+        <v>6.868865626173992</v>
       </c>
       <c r="U20" t="n">
-        <v>0.124465306706047</v>
+        <v>0.1255303826599472</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8324351261596064</v>
+        <v>0.8395584495942116</v>
       </c>
       <c r="H21" t="n">
-        <v>8.039570823699357</v>
+        <v>8.108367131607254</v>
       </c>
       <c r="I21" t="n">
-        <v>28.66059535242505</v>
+        <v>28.90585012857264</v>
       </c>
       <c r="J21" t="n">
-        <v>78.64686426580738</v>
+        <v>79.31986211714435</v>
       </c>
       <c r="K21" t="n">
-        <v>134.420017718501</v>
+        <v>135.5702782399565</v>
       </c>
       <c r="L21" t="n">
-        <v>180.7443022830321</v>
+        <v>182.2909695050941</v>
       </c>
       <c r="M21" t="n">
-        <v>210.9200756063178</v>
+        <v>212.7249633028842</v>
       </c>
       <c r="N21" t="n">
-        <v>216.5025023953443</v>
+        <v>218.3551600986279</v>
       </c>
       <c r="O21" t="n">
-        <v>198.0574924946498</v>
+        <v>199.752312347093</v>
       </c>
       <c r="P21" t="n">
-        <v>158.958598783934</v>
+        <v>160.3188411334771</v>
       </c>
       <c r="Q21" t="n">
-        <v>106.2596136480227</v>
+        <v>107.1688996359208</v>
       </c>
       <c r="R21" t="n">
-        <v>51.68399844699734</v>
+        <v>52.12626935287572</v>
       </c>
       <c r="S21" t="n">
-        <v>15.46211736528917</v>
+        <v>15.5944299738223</v>
       </c>
       <c r="T21" t="n">
-        <v>3.355297723424026</v>
+        <v>3.384009715688948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05476546882628992</v>
+        <v>0.05523410852593499</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6978856464639782</v>
+        <v>0.7038576015436084</v>
       </c>
       <c r="H22" t="n">
-        <v>6.204837838561557</v>
+        <v>6.257933948269541</v>
       </c>
       <c r="I22" t="n">
-        <v>20.98732471366219</v>
+        <v>21.16691769005688</v>
       </c>
       <c r="J22" t="n">
-        <v>49.34051520500326</v>
+        <v>49.76273242913311</v>
       </c>
       <c r="K22" t="n">
-        <v>81.08162328917854</v>
+        <v>81.77545588843012</v>
       </c>
       <c r="L22" t="n">
-        <v>103.75656238429</v>
+        <v>104.6444292331288</v>
       </c>
       <c r="M22" t="n">
-        <v>109.3967472907125</v>
+        <v>110.3328783946949</v>
       </c>
       <c r="N22" t="n">
-        <v>106.7955371538923</v>
+        <v>107.7094091525779</v>
       </c>
       <c r="O22" t="n">
-        <v>98.64296392019943</v>
+        <v>99.4870726254548</v>
       </c>
       <c r="P22" t="n">
-        <v>84.40609673233421</v>
+        <v>85.12837755396511</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.4384062689064</v>
+        <v>58.93847607107434</v>
       </c>
       <c r="R22" t="n">
-        <v>31.37947643100759</v>
+        <v>31.64799724758806</v>
       </c>
       <c r="S22" t="n">
-        <v>12.16224349337678</v>
+        <v>12.26631838326452</v>
       </c>
       <c r="T22" t="n">
-        <v>2.981875034891543</v>
+        <v>3.007391570231781</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03806648980712612</v>
+        <v>0.03839223281146959</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.326426748961199</v>
+        <v>2.326426748961198</v>
       </c>
       <c r="H41" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I41" t="n">
-        <v>89.68956723932671</v>
+        <v>89.68956723932668</v>
       </c>
       <c r="J41" t="n">
         <v>197.4525622846457</v>
@@ -34137,16 +34137,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L41" t="n">
-        <v>367.1275891866947</v>
+        <v>367.1275891866946</v>
       </c>
       <c r="M41" t="n">
-        <v>408.5001808835334</v>
+        <v>408.5001808835333</v>
       </c>
       <c r="N41" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O41" t="n">
-        <v>391.9767348990365</v>
+        <v>391.9767348990364</v>
       </c>
       <c r="P41" t="n">
         <v>334.5430745340568</v>
@@ -34158,7 +34158,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S41" t="n">
-        <v>53.01344954195337</v>
+        <v>53.01344954195336</v>
       </c>
       <c r="T41" t="n">
         <v>10.18393309357765</v>
@@ -34204,10 +34204,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H42" t="n">
-        <v>12.02164561959081</v>
+        <v>12.0216456195908</v>
       </c>
       <c r="I42" t="n">
-        <v>42.85645690907712</v>
+        <v>42.85645690907711</v>
       </c>
       <c r="J42" t="n">
         <v>117.601393411265</v>
@@ -34216,34 +34216,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L42" t="n">
-        <v>270.268649590301</v>
+        <v>270.2686495903009</v>
       </c>
       <c r="M42" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N42" t="n">
-        <v>323.7382214332948</v>
+        <v>323.7382214332947</v>
       </c>
       <c r="O42" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P42" t="n">
-        <v>237.6922829181401</v>
+        <v>237.69228291814</v>
       </c>
       <c r="Q42" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R42" t="n">
-        <v>77.28356738915872</v>
+        <v>77.28356738915869</v>
       </c>
       <c r="S42" t="n">
-        <v>23.12064904585242</v>
+        <v>23.12064904585241</v>
       </c>
       <c r="T42" t="n">
-        <v>5.017208140056288</v>
+        <v>5.017208140056287</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0818913189345423</v>
+        <v>0.08189131893454228</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.043554949482801</v>
+        <v>1.0435549494828</v>
       </c>
       <c r="H43" t="n">
-        <v>9.278152187219817</v>
+        <v>9.278152187219815</v>
       </c>
       <c r="I43" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J43" t="n">
-        <v>73.77933492843401</v>
+        <v>73.779334928434</v>
       </c>
       <c r="K43" t="n">
         <v>121.2421114035472</v>
@@ -34298,10 +34298,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M43" t="n">
-        <v>163.5819817630176</v>
+        <v>163.5819817630175</v>
       </c>
       <c r="N43" t="n">
-        <v>159.6923678604</v>
+        <v>159.6923678603999</v>
       </c>
       <c r="O43" t="n">
         <v>147.5017486778054</v>
@@ -34310,19 +34310,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.38349672441889</v>
+        <v>87.38349672441888</v>
       </c>
       <c r="R43" t="n">
-        <v>46.92202527401756</v>
+        <v>46.92202527401754</v>
       </c>
       <c r="S43" t="n">
-        <v>18.18631671053208</v>
+        <v>18.18631671053207</v>
       </c>
       <c r="T43" t="n">
-        <v>4.458825693244693</v>
+        <v>4.458825693244692</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05692117906269829</v>
+        <v>0.05692117906269827</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34371,7 +34371,7 @@
         <v>197.4525622846457</v>
       </c>
       <c r="K44" t="n">
-        <v>295.9302065681731</v>
+        <v>295.9302065681733</v>
       </c>
       <c r="L44" t="n">
         <v>367.1275891866947</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>58.72437522972166</v>
+        <v>59.85433760775092</v>
       </c>
       <c r="K11" t="n">
-        <v>108.7692823006496</v>
+        <v>110.4628029927864</v>
       </c>
       <c r="L11" t="n">
-        <v>150.0340880373368</v>
+        <v>152.1350502072758</v>
       </c>
       <c r="M11" t="n">
-        <v>179.897510369807</v>
+        <v>182.2352355959356</v>
       </c>
       <c r="N11" t="n">
-        <v>184.6959072287151</v>
+        <v>187.0714592930189</v>
       </c>
       <c r="O11" t="n">
-        <v>168.9477736900731</v>
+        <v>171.1909401416695</v>
       </c>
       <c r="P11" t="n">
-        <v>130.0789702936528</v>
+        <v>131.9934609626003</v>
       </c>
       <c r="Q11" t="n">
-        <v>77.976856720256</v>
+        <v>79.41455948171534</v>
       </c>
       <c r="R11" t="n">
-        <v>10.41840496494814</v>
+        <v>11.25470593231299</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>27.27762546580737</v>
+        <v>260.8328441872863</v>
       </c>
       <c r="K12" t="n">
-        <v>78.59423493388562</v>
+        <v>79.74449545534114</v>
       </c>
       <c r="L12" t="n">
-        <v>124.629778472183</v>
+        <v>126.176445694245</v>
       </c>
       <c r="M12" t="n">
-        <v>270.1142186599001</v>
+        <v>155.1606795644668</v>
       </c>
       <c r="N12" t="n">
-        <v>163.3091090015943</v>
+        <v>165.1617667048779</v>
       </c>
       <c r="O12" t="n">
-        <v>140.3060134946498</v>
+        <v>142.000833347093</v>
       </c>
       <c r="P12" t="n">
-        <v>104.6989637811302</v>
+        <v>106.0592061306734</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.07112621271941</v>
+        <v>50.47628113108206</v>
       </c>
       <c r="R12" t="n">
-        <v>81.54209881329015</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>28.83125373011171</v>
+        <v>237.8889182341251</v>
       </c>
       <c r="L13" t="n">
-        <v>201.7430040329187</v>
+        <v>64.1854136166972</v>
       </c>
       <c r="M13" t="n">
-        <v>270.1142186599001</v>
+        <v>54.06793589591486</v>
       </c>
       <c r="N13" t="n">
-        <v>270.1142186599001</v>
+        <v>55.99676364415846</v>
       </c>
       <c r="O13" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298253</v>
       </c>
       <c r="P13" t="n">
-        <v>28.62625509242942</v>
+        <v>274.1725578298253</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>125.1284051645196</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>58.72437522972163</v>
+        <v>59.85433760775089</v>
       </c>
       <c r="K14" t="n">
-        <v>108.7692823006496</v>
+        <v>110.4628029927864</v>
       </c>
       <c r="L14" t="n">
-        <v>150.0340880373368</v>
+        <v>152.1350502072757</v>
       </c>
       <c r="M14" t="n">
-        <v>179.8975103698069</v>
+        <v>182.2352355959355</v>
       </c>
       <c r="N14" t="n">
-        <v>184.695907228715</v>
+        <v>187.0714592930189</v>
       </c>
       <c r="O14" t="n">
-        <v>168.9477736900731</v>
+        <v>171.1909401416694</v>
       </c>
       <c r="P14" t="n">
-        <v>130.0789702936528</v>
+        <v>131.9934609626003</v>
       </c>
       <c r="Q14" t="n">
-        <v>77.97685672025597</v>
+        <v>79.41455948171532</v>
       </c>
       <c r="R14" t="n">
-        <v>10.41840496494812</v>
+        <v>11.25470593231297</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8.119489886462819</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>27.27762546580735</v>
+        <v>260.8328441872864</v>
       </c>
       <c r="K15" t="n">
-        <v>78.59423493388559</v>
+        <v>79.74449545534114</v>
       </c>
       <c r="L15" t="n">
-        <v>124.629778472183</v>
+        <v>126.176445694245</v>
       </c>
       <c r="M15" t="n">
-        <v>153.3557918679003</v>
+        <v>155.1606795644668</v>
       </c>
       <c r="N15" t="n">
-        <v>163.3091090015943</v>
+        <v>165.1617667048779</v>
       </c>
       <c r="O15" t="n">
-        <v>140.3060134946498</v>
+        <v>142.000833347093</v>
       </c>
       <c r="P15" t="n">
-        <v>104.6989637811302</v>
+        <v>106.0592061306734</v>
       </c>
       <c r="Q15" t="n">
-        <v>269.2521619315468</v>
+        <v>50.47628113108205</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>181.4459892726419</v>
+        <v>29.52508632936329</v>
       </c>
       <c r="L16" t="n">
-        <v>49.12826849038849</v>
+        <v>204.2212564821664</v>
       </c>
       <c r="M16" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="N16" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="O16" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="P16" t="n">
-        <v>28.62625509242941</v>
+        <v>29.34853591406033</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>58.72437522972166</v>
+        <v>59.85433760775089</v>
       </c>
       <c r="K17" t="n">
-        <v>108.7692823006496</v>
+        <v>110.4628029927864</v>
       </c>
       <c r="L17" t="n">
-        <v>150.0340880373368</v>
+        <v>152.1350502072757</v>
       </c>
       <c r="M17" t="n">
-        <v>179.897510369807</v>
+        <v>182.2352355959355</v>
       </c>
       <c r="N17" t="n">
-        <v>184.6959072287151</v>
+        <v>187.0714592930189</v>
       </c>
       <c r="O17" t="n">
-        <v>168.9477736900731</v>
+        <v>171.1909401416694</v>
       </c>
       <c r="P17" t="n">
-        <v>130.0789702936528</v>
+        <v>131.9934609626003</v>
       </c>
       <c r="Q17" t="n">
-        <v>77.976856720256</v>
+        <v>79.41455948171532</v>
       </c>
       <c r="R17" t="n">
-        <v>10.41840496494814</v>
+        <v>11.25470593231297</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8.364744662610413</v>
       </c>
       <c r="J18" t="n">
-        <v>27.27762546580737</v>
+        <v>27.95062331714434</v>
       </c>
       <c r="K18" t="n">
-        <v>78.59423493388562</v>
+        <v>79.74449545534114</v>
       </c>
       <c r="L18" t="n">
-        <v>124.629778472183</v>
+        <v>126.176445694245</v>
       </c>
       <c r="M18" t="n">
-        <v>153.3557918679003</v>
+        <v>155.1606795644668</v>
       </c>
       <c r="N18" t="n">
-        <v>163.3091090015943</v>
+        <v>165.1617667048779</v>
       </c>
       <c r="O18" t="n">
-        <v>140.3060134946498</v>
+        <v>142.000833347093</v>
       </c>
       <c r="P18" t="n">
-        <v>111.9563969392395</v>
+        <v>106.0592061306734</v>
       </c>
       <c r="Q18" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.8211995087884758</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>177.442452971098</v>
+        <v>237.888918234125</v>
       </c>
       <c r="L19" t="n">
-        <v>270.1142186599001</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="M19" t="n">
-        <v>53.13180479193245</v>
+        <v>54.06793589591484</v>
       </c>
       <c r="N19" t="n">
-        <v>270.1142186599001</v>
+        <v>201.8984078729167</v>
       </c>
       <c r="O19" t="n">
-        <v>270.1142186599001</v>
+        <v>43.41217455245847</v>
       </c>
       <c r="P19" t="n">
-        <v>28.62625509242942</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>58.72437522972166</v>
+        <v>59.85433760775089</v>
       </c>
       <c r="K20" t="n">
-        <v>108.7692823006496</v>
+        <v>110.4628029927864</v>
       </c>
       <c r="L20" t="n">
-        <v>150.0340880373368</v>
+        <v>152.1350502072757</v>
       </c>
       <c r="M20" t="n">
-        <v>179.897510369807</v>
+        <v>182.2352355959355</v>
       </c>
       <c r="N20" t="n">
-        <v>184.6959072287151</v>
+        <v>187.0714592930189</v>
       </c>
       <c r="O20" t="n">
-        <v>168.9477736900731</v>
+        <v>171.1909401416694</v>
       </c>
       <c r="P20" t="n">
-        <v>130.0789702936528</v>
+        <v>131.9934609626003</v>
       </c>
       <c r="Q20" t="n">
-        <v>77.976856720256</v>
+        <v>79.41455948171532</v>
       </c>
       <c r="R20" t="n">
-        <v>10.41840496494814</v>
+        <v>11.25470593231297</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>27.27762546580737</v>
+        <v>260.8328441872864</v>
       </c>
       <c r="K21" t="n">
-        <v>78.59423493388562</v>
+        <v>79.74449545534114</v>
       </c>
       <c r="L21" t="n">
-        <v>270.1142186599002</v>
+        <v>126.176445694245</v>
       </c>
       <c r="M21" t="n">
-        <v>153.3557918679003</v>
+        <v>155.1606795644668</v>
       </c>
       <c r="N21" t="n">
-        <v>163.3091090015943</v>
+        <v>165.1617667048779</v>
       </c>
       <c r="O21" t="n">
-        <v>140.3060134946498</v>
+        <v>142.000833347093</v>
       </c>
       <c r="P21" t="n">
-        <v>104.6989637811302</v>
+        <v>106.0592061306734</v>
       </c>
       <c r="Q21" t="n">
-        <v>131.8872116302924</v>
+        <v>50.47628113108205</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.56531258400378</v>
+        <v>63.98752980813364</v>
       </c>
       <c r="K22" t="n">
-        <v>28.83125373011171</v>
+        <v>29.52508632936329</v>
       </c>
       <c r="L22" t="n">
-        <v>241.0955088992603</v>
+        <v>50.01613533922734</v>
       </c>
       <c r="M22" t="n">
-        <v>270.1142186599002</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="N22" t="n">
-        <v>270.1142186599002</v>
+        <v>274.1725578298252</v>
       </c>
       <c r="O22" t="n">
-        <v>42.56806584720311</v>
+        <v>239.261744000111</v>
       </c>
       <c r="P22" t="n">
-        <v>28.62625509242942</v>
+        <v>29.34853591406033</v>
       </c>
       <c r="Q22" t="n">
-        <v>124.6283353623517</v>
+        <v>125.1284051645196</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J24" t="n">
         <v>312.361855595743</v>
       </c>
       <c r="K24" t="n">
-        <v>145.1737298295874</v>
+        <v>295.4930686333068</v>
       </c>
       <c r="L24" t="n">
         <v>214.1541257794519</v>
@@ -36457,7 +36457,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q24" t="n">
-        <v>272.2831751509793</v>
+        <v>102.1983779132225</v>
       </c>
       <c r="R24" t="n">
         <v>107.1416677554515</v>
@@ -36518,22 +36518,22 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K25" t="n">
-        <v>277.3555737492421</v>
+        <v>68.99174184448033</v>
       </c>
       <c r="L25" t="n">
-        <v>417.6704839137738</v>
+        <v>314.0514794950414</v>
       </c>
       <c r="M25" t="n">
         <v>455.7678973594753</v>
       </c>
       <c r="N25" t="n">
-        <v>186.1095904660699</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O25" t="n">
-        <v>91.42685060480903</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P25" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845134</v>
       </c>
       <c r="Q25" t="n">
         <v>153.5734258178642</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J27" t="n">
         <v>312.361855595743</v>
@@ -36679,7 +36679,7 @@
         <v>145.1737298295874</v>
       </c>
       <c r="L27" t="n">
-        <v>384.2389230172091</v>
+        <v>214.1541257794519</v>
       </c>
       <c r="M27" t="n">
         <v>257.8264825848162</v>
@@ -36694,7 +36694,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.1983779132225</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R27" t="n">
         <v>107.1416677554515</v>
@@ -36758,16 +36758,16 @@
         <v>277.3555737492421</v>
       </c>
       <c r="L28" t="n">
-        <v>417.6704839137738</v>
+        <v>177.5430192816612</v>
       </c>
       <c r="M28" t="n">
-        <v>107.3170392642375</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N28" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O28" t="n">
-        <v>182.6193935337474</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P28" t="n">
         <v>333.9661976574595</v>
@@ -36852,7 +36852,7 @@
         <v>240.8937112531726</v>
       </c>
       <c r="Q29" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877323</v>
       </c>
       <c r="R29" t="n">
         <v>58.82526145471049</v>
@@ -36916,7 +36916,7 @@
         <v>506.0804618258591</v>
       </c>
       <c r="L30" t="n">
-        <v>214.1541257794519</v>
+        <v>269.4618920054156</v>
       </c>
       <c r="M30" t="n">
         <v>257.8264825848162</v>
@@ -36928,13 +36928,13 @@
         <v>238.4057462161409</v>
       </c>
       <c r="P30" t="n">
-        <v>327.5987136129979</v>
+        <v>183.4326479153363</v>
       </c>
       <c r="Q30" t="n">
         <v>102.1983779132225</v>
       </c>
       <c r="R30" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>277.3555737492421</v>
       </c>
       <c r="L31" t="n">
-        <v>100.5198665046596</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M31" t="n">
-        <v>455.7678973594753</v>
+        <v>215.6404327273629</v>
       </c>
       <c r="N31" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O31" t="n">
-        <v>151.3191528476236</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P31" t="n">
         <v>333.9661976574595</v>
@@ -37168,10 +37168,10 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q33" t="n">
-        <v>361.1414746226781</v>
+        <v>272.2831751509797</v>
       </c>
       <c r="R33" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K34" t="n">
-        <v>68.99174184448033</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L34" t="n">
-        <v>178.0681226594044</v>
+        <v>105.6876475902797</v>
       </c>
       <c r="M34" t="n">
         <v>455.7678973594753</v>
@@ -37244,10 +37244,10 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P34" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845134</v>
       </c>
       <c r="Q34" t="n">
-        <v>26.02397106449331</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J36" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K36" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L36" t="n">
-        <v>506.0804618258591</v>
+        <v>214.1541257794519</v>
       </c>
       <c r="M36" t="n">
         <v>257.8264825848162</v>
@@ -37405,7 +37405,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q36" t="n">
-        <v>226.4865400890507</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R36" t="n">
         <v>107.1416677554515</v>
@@ -37466,10 +37466,10 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K37" t="n">
-        <v>68.99174184448033</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L37" t="n">
-        <v>100.5198665046596</v>
+        <v>160.4121687474742</v>
       </c>
       <c r="M37" t="n">
         <v>455.7678973594753</v>
@@ -37478,13 +37478,13 @@
         <v>443.3679056323699</v>
       </c>
       <c r="O37" t="n">
-        <v>409.6841833510116</v>
+        <v>91.42685060480903</v>
       </c>
       <c r="P37" t="n">
         <v>333.9661976574595</v>
       </c>
       <c r="Q37" t="n">
-        <v>103.572227219238</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>270.5448280395447</v>
       </c>
       <c r="O39" t="n">
-        <v>477.5833844915581</v>
+        <v>238.4057462161409</v>
       </c>
       <c r="P39" t="n">
         <v>183.4326479153363</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.1983779132225</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R39" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>277.3555737492421</v>
       </c>
       <c r="L40" t="n">
-        <v>160.4121687474737</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M40" t="n">
         <v>455.7678973594753</v>
       </c>
       <c r="N40" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O40" t="n">
-        <v>91.42685060480903</v>
+        <v>169.556718718899</v>
       </c>
       <c r="P40" t="n">
         <v>333.9661976574595</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.201322183229138</v>
+        <v>4.201322183229109</v>
       </c>
       <c r="J41" t="n">
-        <v>124.1289709513378</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K41" t="n">
-        <v>206.7938168949562</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L41" t="n">
-        <v>271.6421911238499</v>
+        <v>271.6421911238498</v>
       </c>
       <c r="M41" t="n">
-        <v>315.209956426488</v>
+        <v>315.2099564264878</v>
       </c>
       <c r="N41" t="n">
-        <v>322.1978501274001</v>
+        <v>322.1978501274</v>
       </c>
       <c r="O41" t="n">
-        <v>298.7869592732534</v>
+        <v>298.7869592732533</v>
       </c>
       <c r="P41" t="n">
-        <v>240.8937112531727</v>
+        <v>240.8937112531726</v>
       </c>
       <c r="Q41" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R41" t="n">
-        <v>58.82526145471051</v>
+        <v>58.82526145471049</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>22.3153514431149</v>
+        <v>2.54989300907711</v>
       </c>
       <c r="J42" t="n">
         <v>312.361855595743</v>
@@ -37867,22 +37867,22 @@
         <v>214.1541257794519</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8264825848163</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N42" t="n">
-        <v>420.8641668432642</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O42" t="n">
-        <v>238.405746216141</v>
+        <v>238.4057462161409</v>
       </c>
       <c r="P42" t="n">
         <v>183.4326479153363</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.1983779132225</v>
+        <v>272.2831751509797</v>
       </c>
       <c r="R42" t="n">
-        <v>107.1416677554516</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,19 +37943,19 @@
         <v>277.3555737492421</v>
       </c>
       <c r="L43" t="n">
-        <v>100.5198665046596</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M43" t="n">
-        <v>455.7678973594754</v>
+        <v>107.3170392642375</v>
       </c>
       <c r="N43" t="n">
         <v>443.3679056323699</v>
       </c>
       <c r="O43" t="n">
-        <v>409.6841833510116</v>
+        <v>182.6193935337474</v>
       </c>
       <c r="P43" t="n">
-        <v>75.60116715407152</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q43" t="n">
         <v>153.5734258178642</v>
@@ -38019,7 +38019,7 @@
         <v>124.1289709513378</v>
       </c>
       <c r="K44" t="n">
-        <v>206.793816894956</v>
+        <v>206.7938168949562</v>
       </c>
       <c r="L44" t="n">
         <v>271.6421911238499</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>22.3153514431149</v>
+        <v>2.549893009077124</v>
       </c>
       <c r="J45" t="n">
-        <v>312.361855595743</v>
+        <v>66.232154611265</v>
       </c>
       <c r="K45" t="n">
         <v>145.1737298295874</v>
@@ -38113,13 +38113,13 @@
         <v>238.405746216141</v>
       </c>
       <c r="P45" t="n">
-        <v>183.4326479153363</v>
+        <v>284.623361696633</v>
       </c>
       <c r="Q45" t="n">
-        <v>252.517716716942</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="R45" t="n">
-        <v>107.1416677554516</v>
+        <v>18.28336828375331</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>88.00413230743453</v>
       </c>
       <c r="K46" t="n">
-        <v>68.99174184448036</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L46" t="n">
-        <v>100.5198665046596</v>
+        <v>417.6704839137739</v>
       </c>
       <c r="M46" t="n">
         <v>455.7678973594754</v>
       </c>
       <c r="N46" t="n">
-        <v>443.3679056323699</v>
+        <v>131.3850693088758</v>
       </c>
       <c r="O46" t="n">
         <v>409.6841833510116</v>
       </c>
       <c r="P46" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845134</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.572227219238</v>
+        <v>153.5734258178642</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
